--- a/data/loo_sum.xlsx
+++ b/data/loo_sum.xlsx
@@ -59,48 +59,48 @@
     <t>m_1_cs_st</t>
   </si>
   <si>
+    <t>m_1_s_st</t>
+  </si>
+  <si>
+    <t>m_1_csr_st</t>
+  </si>
+  <si>
+    <t>m_1_csf_st</t>
+  </si>
+  <si>
+    <t>m_1_sr_st</t>
+  </si>
+  <si>
     <t>m_1_csrf_st</t>
   </si>
   <si>
-    <t>m_1_sr_st</t>
-  </si>
-  <si>
     <t>m_1_sf_st</t>
   </si>
   <si>
-    <t>m_1_s_st</t>
-  </si>
-  <si>
-    <t>m_1_csr_st</t>
-  </si>
-  <si>
-    <t>m_1_csf_st</t>
-  </si>
-  <si>
     <t>m_1_srf_st</t>
   </si>
   <si>
+    <t>m_1_c_st</t>
+  </si>
+  <si>
+    <t>m_1_cr_st</t>
+  </si>
+  <si>
     <t>m_1_st</t>
   </si>
   <si>
-    <t>m_1_c_st</t>
-  </si>
-  <si>
-    <t>m_1_cr_st</t>
+    <t>m_1_crf_st</t>
+  </si>
+  <si>
+    <t>m_1_cf_st</t>
+  </si>
+  <si>
+    <t>m_1_f_st</t>
   </si>
   <si>
     <t>m_1_r_st</t>
   </si>
   <si>
-    <t>m_1_f_st</t>
-  </si>
-  <si>
-    <t>m_1_cf_st</t>
-  </si>
-  <si>
-    <t>m_1_crf_st</t>
-  </si>
-  <si>
     <t>m_1_rf_st</t>
   </si>
   <si>
@@ -125,15 +125,15 @@
     <t>m_1ft_csr_st</t>
   </si>
   <si>
+    <t>m_1ft_r_st</t>
+  </si>
+  <si>
+    <t>m_1ft_cr_st</t>
+  </si>
+  <si>
     <t>m_1ft_cre_st</t>
   </si>
   <si>
-    <t>m_1ft_cr_st</t>
-  </si>
-  <si>
-    <t>m_1ft_r_st</t>
-  </si>
-  <si>
     <t>m_1ft_s_st</t>
   </si>
   <si>
@@ -173,22 +173,22 @@
     <t>m_1ft_ecf_int_st</t>
   </si>
   <si>
+    <t>m_1ft_crf_st</t>
+  </si>
+  <si>
     <t>m_1ft_rf_st</t>
   </si>
   <si>
-    <t>m_1ft_crf_st</t>
-  </si>
-  <si>
     <t>m_1ft_cref_st</t>
   </si>
   <si>
     <t>m_1ft_sf_st</t>
   </si>
   <si>
+    <t>m_1ft_csef_st</t>
+  </si>
+  <si>
     <t>m_1ft_csf_st</t>
-  </si>
-  <si>
-    <t>m_1ft_csef_st</t>
   </si>
   <si>
     <t>m_1ft_f_st</t>
@@ -596,25 +596,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>361.548201964518</v>
+        <v>361.823071179111</v>
       </c>
       <c r="E2">
-        <v>67.2242394324232</v>
+        <v>67.2423668336044</v>
       </c>
       <c r="F2">
-        <v>34.771585080547</v>
+        <v>34.7584327282136</v>
       </c>
       <c r="G2">
-        <v>3.41078451474812</v>
+        <v>3.42953319493121</v>
       </c>
       <c r="H2">
-        <v>-723.096403929035</v>
+        <v>-723.646142358223</v>
       </c>
       <c r="I2">
-        <v>134.448478864846</v>
+        <v>134.484733667209</v>
       </c>
       <c r="J2">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="K2">
         <v>0.19</v>
@@ -625,34 +625,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.253173333317947</v>
+        <v>-0.343599010602577</v>
       </c>
       <c r="C3">
-        <v>1.11323407673419</v>
+        <v>1.51893549208178</v>
       </c>
       <c r="D3">
-        <v>361.2950286312</v>
+        <v>361.479472168509</v>
       </c>
       <c r="E3">
-        <v>67.3157288946805</v>
+        <v>67.2296973893866</v>
       </c>
       <c r="F3">
-        <v>36.5630987737849</v>
+        <v>34.5266772778027</v>
       </c>
       <c r="G3">
-        <v>3.46696588543408</v>
+        <v>3.56396431109914</v>
       </c>
       <c r="H3">
-        <v>-722.5900572624</v>
+        <v>-722.958944337018</v>
       </c>
       <c r="I3">
-        <v>134.631457789361</v>
+        <v>134.459394778773</v>
       </c>
       <c r="J3">
+        <v>0.34</v>
+      </c>
+      <c r="K3">
         <v>0.15</v>
-      </c>
-      <c r="K3">
-        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -660,34 +660,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.4248548502992</v>
+        <v>-0.39313924813176</v>
       </c>
       <c r="C4">
-        <v>1.56517426661945</v>
+        <v>0.426829558975291</v>
       </c>
       <c r="D4">
-        <v>361.123347114219</v>
+        <v>361.429931930979</v>
       </c>
       <c r="E4">
-        <v>67.148463619578</v>
+        <v>67.3040413461749</v>
       </c>
       <c r="F4">
-        <v>35.0475803114036</v>
+        <v>35.5372306130595</v>
       </c>
       <c r="G4">
-        <v>3.43443880966882</v>
+        <v>3.43465824972294</v>
       </c>
       <c r="H4">
-        <v>-722.246694228437</v>
+        <v>-722.859863861959</v>
       </c>
       <c r="I4">
-        <v>134.296927239156</v>
+        <v>134.60808269235</v>
       </c>
       <c r="J4">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -695,31 +695,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.462084797755383</v>
+        <v>-0.518587334306547</v>
       </c>
       <c r="C5">
-        <v>1.76175278696368</v>
+        <v>0.944371118194755</v>
       </c>
       <c r="D5">
-        <v>361.086117166763</v>
+        <v>361.304483844805</v>
       </c>
       <c r="E5">
-        <v>67.2247736366544</v>
+        <v>67.2911094918629</v>
       </c>
       <c r="F5">
-        <v>35.1627133907187</v>
+        <v>35.7361362950141</v>
       </c>
       <c r="G5">
-        <v>3.45861225490585</v>
+        <v>3.40494092524917</v>
       </c>
       <c r="H5">
-        <v>-722.172234333527</v>
+        <v>-722.60896768961</v>
       </c>
       <c r="I5">
-        <v>134.449547273309</v>
+        <v>134.582218983726</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
         <v>0.13</v>
@@ -730,28 +730,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.529096835597989</v>
+        <v>-0.558206262987755</v>
       </c>
       <c r="C6">
-        <v>1.54138608856306</v>
+        <v>1.5747018340585</v>
       </c>
       <c r="D6">
-        <v>361.01910512892</v>
+        <v>361.264864916124</v>
       </c>
       <c r="E6">
-        <v>67.1286825466866</v>
+        <v>67.2113746719236</v>
       </c>
       <c r="F6">
-        <v>34.8872585301146</v>
+        <v>34.744254794464</v>
       </c>
       <c r="G6">
-        <v>3.48101335472106</v>
+        <v>3.36803636277328</v>
       </c>
       <c r="H6">
-        <v>-722.038210257841</v>
+        <v>-722.529729832247</v>
       </c>
       <c r="I6">
-        <v>134.257365093373</v>
+        <v>134.422749343847</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -765,31 +765,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.576330661945121</v>
+        <v>-0.700795618176467</v>
       </c>
       <c r="C7">
-        <v>0.454863833884211</v>
+        <v>1.13270344604809</v>
       </c>
       <c r="D7">
-        <v>360.971871302573</v>
+        <v>361.122275560934</v>
       </c>
       <c r="E7">
-        <v>67.3469344742708</v>
+        <v>67.3806371007978</v>
       </c>
       <c r="F7">
-        <v>36.0810591391511</v>
+        <v>36.8181091197674</v>
       </c>
       <c r="G7">
-        <v>3.51691032650011</v>
+        <v>3.45508318912351</v>
       </c>
       <c r="H7">
-        <v>-721.943742605146</v>
+        <v>-722.244551121868</v>
       </c>
       <c r="I7">
-        <v>134.693868948542</v>
+        <v>134.761274201596</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="K7">
         <v>0.11</v>
@@ -800,28 +800,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.763006529982234</v>
+        <v>-0.885514332184171</v>
       </c>
       <c r="C8">
-        <v>0.951113841789484</v>
+        <v>1.77220568465971</v>
       </c>
       <c r="D8">
-        <v>360.785195434536</v>
+        <v>360.937556846927</v>
       </c>
       <c r="E8">
-        <v>67.3049241680873</v>
+        <v>67.2217841951717</v>
       </c>
       <c r="F8">
-        <v>36.2434523459569</v>
+        <v>35.1968581970131</v>
       </c>
       <c r="G8">
-        <v>3.5343516435491</v>
+        <v>3.40458787344605</v>
       </c>
       <c r="H8">
-        <v>-721.570390869072</v>
+        <v>-721.875113693854</v>
       </c>
       <c r="I8">
-        <v>134.609848336175</v>
+        <v>134.443568390343</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -835,34 +835,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1.38573790160077</v>
+        <v>-1.20714624153439</v>
       </c>
       <c r="C9">
-        <v>1.85531570423453</v>
+        <v>1.85441421216021</v>
       </c>
       <c r="D9">
-        <v>360.162464062917</v>
+        <v>360.615924937577</v>
       </c>
       <c r="E9">
-        <v>67.3784293947537</v>
+        <v>67.2133847288202</v>
       </c>
       <c r="F9">
-        <v>36.766359584638</v>
+        <v>36.3771549966395</v>
       </c>
       <c r="G9">
-        <v>3.66759408064927</v>
+        <v>3.4234674687036</v>
       </c>
       <c r="H9">
-        <v>-720.324928125835</v>
+        <v>-721.231849875154</v>
       </c>
       <c r="I9">
-        <v>134.756858789507</v>
+        <v>134.42676945764</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -870,28 +870,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-29.0517139618461</v>
+        <v>-29.6217556239953</v>
       </c>
       <c r="C10">
-        <v>7.67026650666333</v>
+        <v>7.55544940847109</v>
       </c>
       <c r="D10">
-        <v>332.496488002672</v>
+        <v>332.201315555116</v>
       </c>
       <c r="E10">
-        <v>65.7805928989227</v>
+        <v>65.7915687152394</v>
       </c>
       <c r="F10">
-        <v>32.7467963445524</v>
+        <v>33.8405260354104</v>
       </c>
       <c r="G10">
-        <v>3.17171069737705</v>
+        <v>3.34834183282508</v>
       </c>
       <c r="H10">
-        <v>-664.992976005343</v>
+        <v>-664.402631110231</v>
       </c>
       <c r="I10">
-        <v>131.561185797845</v>
+        <v>131.583137430479</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -905,31 +905,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-29.0990573682985</v>
+        <v>-29.6505425664462</v>
       </c>
       <c r="C11">
-        <v>7.62469733097759</v>
+        <v>7.5406452874412</v>
       </c>
       <c r="D11">
-        <v>332.449144596219</v>
+        <v>332.172528612665</v>
       </c>
       <c r="E11">
-        <v>65.7167797426129</v>
+        <v>65.771886750325</v>
       </c>
       <c r="F11">
-        <v>33.579481737316</v>
+        <v>34.3018405804507</v>
       </c>
       <c r="G11">
-        <v>3.21845887314885</v>
+        <v>3.18570896424961</v>
       </c>
       <c r="H11">
-        <v>-664.898289192438</v>
+        <v>-664.345057225329</v>
       </c>
       <c r="I11">
-        <v>131.433559485226</v>
+        <v>131.54377350065</v>
       </c>
       <c r="J11">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-29.6761577013758</v>
+        <v>-29.8971871717022</v>
       </c>
       <c r="C12">
-        <v>7.57989194848243</v>
+        <v>7.6481558950486</v>
       </c>
       <c r="D12">
-        <v>331.872044263143</v>
+        <v>331.92588400741</v>
       </c>
       <c r="E12">
-        <v>65.8341433562338</v>
+        <v>65.7656060561279</v>
       </c>
       <c r="F12">
-        <v>34.5564663750589</v>
+        <v>33.2795506373123</v>
       </c>
       <c r="G12">
-        <v>3.22350238188307</v>
+        <v>3.27909285457426</v>
       </c>
       <c r="H12">
-        <v>-663.744088526285</v>
+        <v>-663.85176801482</v>
       </c>
       <c r="I12">
-        <v>131.668286712468</v>
+        <v>131.531212112256</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -975,28 +975,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-30.0998432052357</v>
+        <v>-30.0326708607398</v>
       </c>
       <c r="C13">
-        <v>7.67086179684019</v>
+        <v>7.58470091908262</v>
       </c>
       <c r="D13">
-        <v>331.448358759283</v>
+        <v>331.790400318371</v>
       </c>
       <c r="E13">
-        <v>65.7544052761638</v>
+        <v>65.7881016313028</v>
       </c>
       <c r="F13">
-        <v>34.1389711270598</v>
+        <v>35.0953644494518</v>
       </c>
       <c r="G13">
-        <v>3.25923230836359</v>
+        <v>3.18087849689125</v>
       </c>
       <c r="H13">
-        <v>-662.896717518565</v>
+        <v>-663.580800636743</v>
       </c>
       <c r="I13">
-        <v>131.508810552328</v>
+        <v>131.576203262606</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1010,31 +1010,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-30.1730644318317</v>
+        <v>-30.0989954124792</v>
       </c>
       <c r="C14">
-        <v>7.72898582700314</v>
+        <v>7.62220887328494</v>
       </c>
       <c r="D14">
-        <v>331.375137532686</v>
+        <v>331.724075766631</v>
       </c>
       <c r="E14">
-        <v>65.7578018588467</v>
+        <v>65.8315181390082</v>
       </c>
       <c r="F14">
-        <v>33.9285512505482</v>
+        <v>34.5332283949371</v>
       </c>
       <c r="G14">
-        <v>3.16719025181537</v>
+        <v>3.22282015806534</v>
       </c>
       <c r="H14">
-        <v>-662.750275065372</v>
+        <v>-663.448151533262</v>
       </c>
       <c r="I14">
-        <v>131.515603717693</v>
+        <v>131.663036278016</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1045,28 +1045,28 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-30.1788942094173</v>
+        <v>-30.1313209409603</v>
       </c>
       <c r="C15">
-        <v>7.64862276731069</v>
+        <v>7.6832724060702</v>
       </c>
       <c r="D15">
-        <v>331.3693077551</v>
+        <v>331.691750238151</v>
       </c>
       <c r="E15">
-        <v>65.8843352334057</v>
+        <v>65.7623423047995</v>
       </c>
       <c r="F15">
-        <v>34.9581061570401</v>
+        <v>33.86375774142</v>
       </c>
       <c r="G15">
-        <v>3.34910757111094</v>
+        <v>3.30815690136725</v>
       </c>
       <c r="H15">
-        <v>-662.7386155102</v>
+        <v>-663.383500476302</v>
       </c>
       <c r="I15">
-        <v>131.768670466811</v>
+        <v>131.524684609599</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1080,28 +1080,28 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-30.4106024433849</v>
+        <v>-30.2357194025467</v>
       </c>
       <c r="C16">
-        <v>7.60672692168433</v>
+        <v>7.63214088357129</v>
       </c>
       <c r="D16">
-        <v>331.137599521134</v>
+        <v>331.587351776564</v>
       </c>
       <c r="E16">
-        <v>65.8383516729216</v>
+        <v>65.7620143740285</v>
       </c>
       <c r="F16">
-        <v>35.7618455320623</v>
+        <v>33.8667683567634</v>
       </c>
       <c r="G16">
-        <v>3.3154899439098</v>
+        <v>3.25364032002379</v>
       </c>
       <c r="H16">
-        <v>-662.275199042268</v>
+        <v>-663.174703553129</v>
       </c>
       <c r="I16">
-        <v>131.676703345843</v>
+        <v>131.524028748057</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,28 +1115,28 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-30.8073341761585</v>
+        <v>-31.0013233648857</v>
       </c>
       <c r="C17">
-        <v>7.68910992535639</v>
+        <v>7.64276812078992</v>
       </c>
       <c r="D17">
-        <v>330.74086778836</v>
+        <v>330.821747814225</v>
       </c>
       <c r="E17">
-        <v>65.8154176156513</v>
+        <v>65.8451798180113</v>
       </c>
       <c r="F17">
-        <v>35.0123389821327</v>
+        <v>34.9130289400131</v>
       </c>
       <c r="G17">
-        <v>3.25227383104747</v>
+        <v>3.25160478930595</v>
       </c>
       <c r="H17">
-        <v>-661.481735576719</v>
+        <v>-661.643495628451</v>
       </c>
       <c r="I17">
-        <v>131.630835231303</v>
+        <v>131.690359636023</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1201,197 +1201,197 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-98.408349993598</v>
+        <v>-98.3361606583236</v>
       </c>
       <c r="E2">
-        <v>60.0361156016094</v>
+        <v>60.0238118262564</v>
       </c>
       <c r="F2">
-        <v>34.1596008906424</v>
+        <v>34.1667269898085</v>
       </c>
       <c r="G2">
-        <v>2.3694301966623</v>
+        <v>2.39690919481369</v>
       </c>
       <c r="H2">
-        <v>196.816699987196</v>
+        <v>196.672321316647</v>
       </c>
       <c r="I2">
-        <v>120.072231203219</v>
+        <v>120.047623652513</v>
       </c>
       <c r="J2">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="K2">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>-0.321501739153552</v>
+        <v>-0.455449513217156</v>
       </c>
       <c r="C3">
-        <v>0.518217871074339</v>
+        <v>0.53841868795815</v>
       </c>
       <c r="D3">
-        <v>-98.7298517327514</v>
+        <v>-98.7916101715408</v>
       </c>
       <c r="E3">
-        <v>60.0579013225266</v>
+        <v>60.0947572628057</v>
       </c>
       <c r="F3">
-        <v>33.293818397276</v>
+        <v>33.5258604955329</v>
       </c>
       <c r="G3">
-        <v>2.36037233071869</v>
+        <v>2.37866164473123</v>
       </c>
       <c r="H3">
-        <v>197.459703465503</v>
+        <v>197.583220343082</v>
       </c>
       <c r="I3">
-        <v>120.115802645053</v>
+        <v>120.189514525611</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.530845041865797</v>
+        <v>-0.797134088953066</v>
       </c>
       <c r="C4">
-        <v>0.592946119407894</v>
+        <v>0.609644439951363</v>
       </c>
       <c r="D4">
-        <v>-98.9391950354637</v>
+        <v>-99.1332947472768</v>
       </c>
       <c r="E4">
-        <v>60.0771310858229</v>
+        <v>60.1194466443993</v>
       </c>
       <c r="F4">
-        <v>34.7939682412145</v>
+        <v>35.26548691825</v>
       </c>
       <c r="G4">
-        <v>2.38853833881927</v>
+        <v>2.4655792489715</v>
       </c>
       <c r="H4">
-        <v>197.878390070927</v>
+        <v>198.266589494554</v>
       </c>
       <c r="I4">
-        <v>120.154262171646</v>
+        <v>120.238893288799</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>-1.15395886000016</v>
+        <v>-1.45874710997008</v>
       </c>
       <c r="C5">
-        <v>0.841098887208066</v>
+        <v>0.83784608892665</v>
       </c>
       <c r="D5">
-        <v>-99.5623088535981</v>
+        <v>-99.7949077682938</v>
       </c>
       <c r="E5">
-        <v>60.1205703169699</v>
+        <v>60.1648414039164</v>
       </c>
       <c r="F5">
-        <v>34.2381729891196</v>
+        <v>34.5064995251761</v>
       </c>
       <c r="G5">
-        <v>2.41820410021377</v>
+        <v>2.41475106691858</v>
       </c>
       <c r="H5">
-        <v>199.124617707196</v>
+        <v>199.589815536588</v>
       </c>
       <c r="I5">
-        <v>120.24114063394</v>
+        <v>120.329682807833</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-6.24134202152762</v>
+        <v>-6.82707576828703</v>
       </c>
       <c r="C6">
-        <v>4.9728027160601</v>
+        <v>4.98832192573673</v>
       </c>
       <c r="D6">
-        <v>-104.649692015126</v>
+        <v>-105.16323642661</v>
       </c>
       <c r="E6">
-        <v>60.1797892288877</v>
+        <v>60.198938554604</v>
       </c>
       <c r="F6">
-        <v>33.2423966284</v>
+        <v>33.7719191996484</v>
       </c>
       <c r="G6">
-        <v>2.4305772664312</v>
+        <v>2.52539867520743</v>
       </c>
       <c r="H6">
-        <v>209.299384030251</v>
+        <v>210.326472853221</v>
       </c>
       <c r="I6">
-        <v>120.359578457775</v>
+        <v>120.397877109208</v>
       </c>
       <c r="J6">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="K6">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>-6.58748717620671</v>
+        <v>-6.9073558744636</v>
       </c>
       <c r="C7">
-        <v>4.92501994156517</v>
+        <v>4.94010636405226</v>
       </c>
       <c r="D7">
-        <v>-104.995837169805</v>
+        <v>-105.243516532787</v>
       </c>
       <c r="E7">
-        <v>60.1583634236408</v>
+        <v>60.2100951602827</v>
       </c>
       <c r="F7">
-        <v>32.2780630390738</v>
+        <v>32.6028890210482</v>
       </c>
       <c r="G7">
-        <v>2.35274503440725</v>
+        <v>2.41872326875226</v>
       </c>
       <c r="H7">
-        <v>209.991674339609</v>
+        <v>210.487033065574</v>
       </c>
       <c r="I7">
-        <v>120.316726847282</v>
+        <v>120.420190320565</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1405,28 +1405,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-7.5325843861413</v>
+        <v>-7.05264441045463</v>
       </c>
       <c r="C8">
-        <v>5.00056703914746</v>
+        <v>5.01317186690459</v>
       </c>
       <c r="D8">
-        <v>-105.940934379739</v>
+        <v>-105.388805068778</v>
       </c>
       <c r="E8">
-        <v>60.234260454284</v>
+        <v>60.2487307087935</v>
       </c>
       <c r="F8">
-        <v>34.7163007339751</v>
+        <v>34.1410475166661</v>
       </c>
       <c r="G8">
-        <v>2.53855414912857</v>
+        <v>2.48271522751311</v>
       </c>
       <c r="H8">
-        <v>211.881868759478</v>
+        <v>210.777610137556</v>
       </c>
       <c r="I8">
-        <v>120.468520908568</v>
+        <v>120.497461417587</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1437,37 +1437,37 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-7.53612291488089</v>
+        <v>-7.35434116693949</v>
       </c>
       <c r="C9">
-        <v>4.96626690845941</v>
+        <v>4.9596131511452</v>
       </c>
       <c r="D9">
-        <v>-105.944472908479</v>
+        <v>-105.690501825263</v>
       </c>
       <c r="E9">
-        <v>60.2812322051746</v>
+        <v>60.2211698350686</v>
       </c>
       <c r="F9">
-        <v>33.3807293614539</v>
+        <v>33.0655080022456</v>
       </c>
       <c r="G9">
-        <v>2.43643792090424</v>
+        <v>2.37901331317649</v>
       </c>
       <c r="H9">
-        <v>211.888945816958</v>
+        <v>211.381003650526</v>
       </c>
       <c r="I9">
-        <v>120.562464410349</v>
+        <v>120.442339670137</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-17.0548730253932</v>
+        <v>-17.1662566899408</v>
       </c>
       <c r="E2">
-        <v>54.6979255293546</v>
+        <v>54.6410215097429</v>
       </c>
       <c r="F2">
-        <v>24.2536233099952</v>
+        <v>24.1296495306287</v>
       </c>
       <c r="G2">
-        <v>1.42723314908844</v>
+        <v>1.41944865197381</v>
       </c>
       <c r="H2">
-        <v>34.1097460507864</v>
+        <v>34.3325133798816</v>
       </c>
       <c r="I2">
-        <v>109.395851058709</v>
+        <v>109.282043019486</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1555,31 +1555,31 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>-39.1037537126192</v>
+        <v>-38.9989282826047</v>
       </c>
       <c r="C3">
-        <v>10.9842979863872</v>
+        <v>10.9978154465495</v>
       </c>
       <c r="D3">
-        <v>-56.1586267380124</v>
+        <v>-56.1651849725454</v>
       </c>
       <c r="E3">
-        <v>56.2849589806111</v>
+        <v>56.3009107326454</v>
       </c>
       <c r="F3">
-        <v>22.8577182577244</v>
+        <v>22.9162584541173</v>
       </c>
       <c r="G3">
-        <v>1.40997311003226</v>
+        <v>1.40474203614947</v>
       </c>
       <c r="H3">
-        <v>112.317253476025</v>
+        <v>112.330369945091</v>
       </c>
       <c r="I3">
-        <v>112.569917961222</v>
+        <v>112.601821465291</v>
       </c>
       <c r="J3">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1590,31 +1590,31 @@
         <v>28</v>
       </c>
       <c r="B4">
-        <v>-52.6916064024951</v>
+        <v>-52.8654610925739</v>
       </c>
       <c r="C4">
-        <v>9.42123369042672</v>
+        <v>9.42668902998301</v>
       </c>
       <c r="D4">
-        <v>-69.7464794278883</v>
+        <v>-70.0317177825146</v>
       </c>
       <c r="E4">
-        <v>54.5759652543254</v>
+        <v>54.5383344921627</v>
       </c>
       <c r="F4">
-        <v>22.4383255906159</v>
+        <v>22.7205159437738</v>
       </c>
       <c r="G4">
-        <v>1.31628685933056</v>
+        <v>1.35343459286828</v>
       </c>
       <c r="H4">
-        <v>139.492958855777</v>
+        <v>140.063435565029</v>
       </c>
       <c r="I4">
-        <v>109.151930508651</v>
+        <v>109.076668984325</v>
       </c>
       <c r="J4">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1625,31 +1625,31 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>-80.9523871002615</v>
+        <v>-81.1607391918484</v>
       </c>
       <c r="C5">
-        <v>12.5779369063105</v>
+        <v>12.5494785554188</v>
       </c>
       <c r="D5">
-        <v>-98.0072601256546</v>
+        <v>-98.3269958817892</v>
       </c>
       <c r="E5">
-        <v>53.2339706803497</v>
+        <v>53.2137337378735</v>
       </c>
       <c r="F5">
-        <v>22.5252850450448</v>
+        <v>23.0235522773046</v>
       </c>
       <c r="G5">
-        <v>1.3022888256195</v>
+        <v>1.35087227295168</v>
       </c>
       <c r="H5">
-        <v>196.014520251309</v>
+        <v>196.653991763578</v>
       </c>
       <c r="I5">
-        <v>106.467941360699</v>
+        <v>106.427467475747</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1660,28 +1660,28 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>-81.5281075559368</v>
+        <v>-81.5007340429251</v>
       </c>
       <c r="C6">
-        <v>12.5718443435616</v>
+        <v>12.5516653932135</v>
       </c>
       <c r="D6">
-        <v>-98.58298058133</v>
+        <v>-98.666990732866</v>
       </c>
       <c r="E6">
-        <v>53.1996188837849</v>
+        <v>53.1283901162887</v>
       </c>
       <c r="F6">
-        <v>23.4960535411839</v>
+        <v>23.6299586076645</v>
       </c>
       <c r="G6">
-        <v>1.34961804770468</v>
+        <v>1.37333220162371</v>
       </c>
       <c r="H6">
-        <v>197.16596116266</v>
+        <v>197.333981465732</v>
       </c>
       <c r="I6">
-        <v>106.39923776757</v>
+        <v>106.256780232577</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1695,31 +1695,31 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>-91.3453604801445</v>
+        <v>-91.0977054809875</v>
       </c>
       <c r="C7">
-        <v>13.6094871035857</v>
+        <v>13.5952188764664</v>
       </c>
       <c r="D7">
-        <v>-108.400233505538</v>
+        <v>-108.263962170928</v>
       </c>
       <c r="E7">
-        <v>55.8819298503356</v>
+        <v>55.8295878809314</v>
       </c>
       <c r="F7">
-        <v>21.6099743741503</v>
+        <v>21.4954577475677</v>
       </c>
       <c r="G7">
-        <v>1.3281983359157</v>
+        <v>1.30853976510038</v>
       </c>
       <c r="H7">
-        <v>216.800467011076</v>
+        <v>216.527924341857</v>
       </c>
       <c r="I7">
-        <v>111.763859700671</v>
+        <v>111.659175761863</v>
       </c>
       <c r="J7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1730,28 +1730,28 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>-92.4690819663507</v>
+        <v>-92.258589628657</v>
       </c>
       <c r="C8">
-        <v>13.5951972350593</v>
+        <v>13.5993851501293</v>
       </c>
       <c r="D8">
-        <v>-109.523954991744</v>
+        <v>-109.424846318598</v>
       </c>
       <c r="E8">
-        <v>55.8240020163853</v>
+        <v>55.8739161481565</v>
       </c>
       <c r="F8">
-        <v>22.5352426029546</v>
+        <v>22.4247993886392</v>
       </c>
       <c r="G8">
-        <v>1.3587632933645</v>
+        <v>1.34545389567033</v>
       </c>
       <c r="H8">
-        <v>219.047909983488</v>
+        <v>218.849692637196</v>
       </c>
       <c r="I8">
-        <v>111.648004032771</v>
+        <v>111.747832296313</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1762,34 +1762,34 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>-117.714556106377</v>
+        <v>-117.9746956685</v>
       </c>
       <c r="C9">
-        <v>15.76313604471</v>
+        <v>15.7689753309279</v>
       </c>
       <c r="D9">
-        <v>-134.769429131771</v>
+        <v>-135.140952358441</v>
       </c>
       <c r="E9">
-        <v>54.6522414926207</v>
+        <v>54.6727381195416</v>
       </c>
       <c r="F9">
-        <v>21.9467682941775</v>
+        <v>22.8080960914556</v>
       </c>
       <c r="G9">
-        <v>1.32298155698652</v>
+        <v>1.37752982537435</v>
       </c>
       <c r="H9">
-        <v>269.538858263541</v>
+        <v>270.281904716882</v>
       </c>
       <c r="I9">
-        <v>109.304482985241</v>
+        <v>109.345476239083</v>
       </c>
       <c r="J9">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1797,34 +1797,34 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>-117.789981996845</v>
+        <v>-118.083440144937</v>
       </c>
       <c r="C10">
-        <v>15.7686877498673</v>
+        <v>15.7426694885553</v>
       </c>
       <c r="D10">
-        <v>-134.844855022238</v>
+        <v>-135.249696834878</v>
       </c>
       <c r="E10">
-        <v>54.6102190242958</v>
+        <v>54.6438158310958</v>
       </c>
       <c r="F10">
-        <v>22.3175686924131</v>
+        <v>22.4523993821924</v>
       </c>
       <c r="G10">
-        <v>1.32385309030345</v>
+        <v>1.35423310681553</v>
       </c>
       <c r="H10">
-        <v>269.689710044477</v>
+        <v>270.499393669756</v>
       </c>
       <c r="I10">
-        <v>109.220438048592</v>
+        <v>109.287631662192</v>
       </c>
       <c r="J10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1832,31 +1832,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>-118.215519115584</v>
+        <v>-118.308608968275</v>
       </c>
       <c r="C11">
-        <v>15.7684644596366</v>
+        <v>15.7470800469723</v>
       </c>
       <c r="D11">
-        <v>-135.270392140977</v>
+        <v>-135.474865658216</v>
       </c>
       <c r="E11">
-        <v>54.646474251901</v>
+        <v>54.6609361875044</v>
       </c>
       <c r="F11">
-        <v>22.6078423978605</v>
+        <v>22.8404638625971</v>
       </c>
       <c r="G11">
-        <v>1.33714978617934</v>
+        <v>1.35432297042363</v>
       </c>
       <c r="H11">
-        <v>270.540784281954</v>
+        <v>270.949731316432</v>
       </c>
       <c r="I11">
-        <v>109.292948503802</v>
+        <v>109.321872375009</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1870,31 +1870,31 @@
         <v>36</v>
       </c>
       <c r="B12">
-        <v>-130.749274348862</v>
+        <v>-130.711091867415</v>
       </c>
       <c r="C12">
-        <v>14.8007424133693</v>
+        <v>14.7775472922062</v>
       </c>
       <c r="D12">
-        <v>-147.804147374255</v>
+        <v>-147.877348557356</v>
       </c>
       <c r="E12">
-        <v>52.971445425053</v>
+        <v>52.9770767392347</v>
       </c>
       <c r="F12">
-        <v>21.6351000257716</v>
+        <v>21.4917834984963</v>
       </c>
       <c r="G12">
-        <v>1.24684350702806</v>
+        <v>1.23498574364523</v>
       </c>
       <c r="H12">
-        <v>295.60829474851</v>
+        <v>295.754697114712</v>
       </c>
       <c r="I12">
-        <v>105.942890850106</v>
+        <v>105.954153478469</v>
       </c>
       <c r="J12">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1905,28 +1905,28 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>-131.300920216155</v>
+        <v>-131.669814580796</v>
       </c>
       <c r="C13">
-        <v>14.7899098352348</v>
+        <v>14.7504037108363</v>
       </c>
       <c r="D13">
-        <v>-148.355793241548</v>
+        <v>-148.836071270737</v>
       </c>
       <c r="E13">
-        <v>52.978441595163</v>
+        <v>52.98321004537</v>
       </c>
       <c r="F13">
-        <v>21.7635571548141</v>
+        <v>22.3081126216202</v>
       </c>
       <c r="G13">
-        <v>1.23235625928083</v>
+        <v>1.2877089047591</v>
       </c>
       <c r="H13">
-        <v>296.711586483095</v>
+        <v>297.672142541474</v>
       </c>
       <c r="I13">
-        <v>105.956883190326</v>
+        <v>105.96642009074</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1940,28 +1940,28 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>-131.791240929762</v>
+        <v>-132.071669923213</v>
       </c>
       <c r="C14">
-        <v>14.7851674001832</v>
+        <v>14.7636025759692</v>
       </c>
       <c r="D14">
-        <v>-148.846113955155</v>
+        <v>-149.237926613153</v>
       </c>
       <c r="E14">
-        <v>53.0479341926873</v>
+        <v>53.0334336249622</v>
       </c>
       <c r="F14">
-        <v>22.0491267348699</v>
+        <v>22.6175724238206</v>
       </c>
       <c r="G14">
-        <v>1.24295318151689</v>
+        <v>1.28193614920686</v>
       </c>
       <c r="H14">
-        <v>297.692227910311</v>
+        <v>298.475853226306</v>
       </c>
       <c r="I14">
-        <v>106.095868385375</v>
+        <v>106.066867249924</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1975,28 +1975,28 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <v>-166.640253513667</v>
+        <v>-166.578814687816</v>
       </c>
       <c r="C15">
-        <v>17.1734283012549</v>
+        <v>17.161690316887</v>
       </c>
       <c r="D15">
-        <v>-183.69512653906</v>
+        <v>-183.745071377757</v>
       </c>
       <c r="E15">
-        <v>54.2302156297088</v>
+        <v>54.2204025914783</v>
       </c>
       <c r="F15">
-        <v>20.6014176366991</v>
+        <v>20.7464783890015</v>
       </c>
       <c r="G15">
-        <v>1.24107465297574</v>
+        <v>1.24825700661912</v>
       </c>
       <c r="H15">
-        <v>367.390253078119</v>
+        <v>367.490142755514</v>
       </c>
       <c r="I15">
-        <v>108.460431259418</v>
+        <v>108.440805182957</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2007,31 +2007,31 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>-167.914011036031</v>
+        <v>-167.496144615897</v>
       </c>
       <c r="C16">
-        <v>17.1560505979809</v>
+        <v>17.1471080471623</v>
       </c>
       <c r="D16">
-        <v>-184.968884061424</v>
+        <v>-184.662401305838</v>
       </c>
       <c r="E16">
-        <v>54.1710014263111</v>
+        <v>54.258523172458</v>
       </c>
       <c r="F16">
-        <v>21.6293677767949</v>
+        <v>21.1320723814768</v>
       </c>
       <c r="G16">
-        <v>1.27735154849354</v>
+        <v>1.25053232746049</v>
       </c>
       <c r="H16">
-        <v>369.937768122848</v>
+        <v>369.324802611676</v>
       </c>
       <c r="I16">
-        <v>108.342002852622</v>
+        <v>108.517046344916</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2042,31 +2042,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>-168.020216690397</v>
+        <v>-167.541984185795</v>
       </c>
       <c r="C17">
-        <v>17.1509435001518</v>
+        <v>17.1515727321059</v>
       </c>
       <c r="D17">
-        <v>-185.07508971579</v>
+        <v>-184.708240875735</v>
       </c>
       <c r="E17">
-        <v>54.2496846612218</v>
+        <v>54.1615533196154</v>
       </c>
       <c r="F17">
-        <v>21.7567990790086</v>
+        <v>21.3726436255465</v>
       </c>
       <c r="G17">
-        <v>1.30908087182203</v>
+        <v>1.26054382021776</v>
       </c>
       <c r="H17">
-        <v>370.150179431579</v>
+        <v>369.416481751471</v>
       </c>
       <c r="I17">
-        <v>108.499369322444</v>
+        <v>108.323106639231</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2131,28 +2131,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-154.426064857071</v>
+        <v>-154.719024148478</v>
       </c>
       <c r="E2">
-        <v>46.3954933096455</v>
+        <v>46.4146382054378</v>
       </c>
       <c r="F2">
-        <v>29.4758463578703</v>
+        <v>29.8421730856611</v>
       </c>
       <c r="G2">
-        <v>1.62514694911992</v>
+        <v>1.63883497104562</v>
       </c>
       <c r="H2">
-        <v>308.852129714142</v>
+        <v>309.438048296957</v>
       </c>
       <c r="I2">
-        <v>92.790986619291</v>
+        <v>92.8292764108757</v>
       </c>
       <c r="J2">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2160,136 +2160,136 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-1.22435680386822</v>
+        <v>-0.79546314131052</v>
       </c>
       <c r="C3">
-        <v>0.199574123542408</v>
+        <v>0.188689320847295</v>
       </c>
       <c r="D3">
-        <v>-155.65042166094</v>
+        <v>-155.514487289789</v>
       </c>
       <c r="E3">
-        <v>46.4125430752249</v>
+        <v>46.3876041028837</v>
       </c>
       <c r="F3">
-        <v>30.6615789693199</v>
+        <v>30.5212042365236</v>
       </c>
       <c r="G3">
-        <v>1.65975155969744</v>
+        <v>1.64410984459603</v>
       </c>
       <c r="H3">
-        <v>311.300843321879</v>
+        <v>311.028974579577</v>
       </c>
       <c r="I3">
-        <v>92.8250861504497</v>
+        <v>92.7752082057675</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-1.53670538346342</v>
+        <v>-1.60075003045573</v>
       </c>
       <c r="C4">
-        <v>0.753476785445616</v>
+        <v>0.74548806788446</v>
       </c>
       <c r="D4">
-        <v>-155.962770240535</v>
+        <v>-156.319774178934</v>
       </c>
       <c r="E4">
-        <v>46.3345196697078</v>
+        <v>46.339371035596</v>
       </c>
       <c r="F4">
-        <v>30.6139736005186</v>
+        <v>30.969144943105</v>
       </c>
       <c r="G4">
-        <v>1.64158715987258</v>
+        <v>1.66947593351717</v>
       </c>
       <c r="H4">
-        <v>311.925540481069</v>
+        <v>312.639548357868</v>
       </c>
       <c r="I4">
-        <v>92.6690393394156</v>
+        <v>92.678742071192</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>-2.57299835100982</v>
+        <v>-2.11739115786723</v>
       </c>
       <c r="C5">
-        <v>0.76982605878481</v>
+        <v>0.786453290441198</v>
       </c>
       <c r="D5">
-        <v>-156.999063208081</v>
+        <v>-156.836415306346</v>
       </c>
       <c r="E5">
-        <v>46.3144265081582</v>
+        <v>46.3451009499562</v>
       </c>
       <c r="F5">
-        <v>31.6452101444183</v>
+        <v>31.5342646324157</v>
       </c>
       <c r="G5">
-        <v>1.69247472969218</v>
+        <v>1.70670168325042</v>
       </c>
       <c r="H5">
-        <v>313.998126416162</v>
+        <v>313.672830612692</v>
       </c>
       <c r="I5">
-        <v>92.6288530163164</v>
+        <v>92.6902018999124</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>-14.1392597632484</v>
+        <v>-13.738237754981</v>
       </c>
       <c r="C6">
-        <v>5.1227126769594</v>
+        <v>5.13940100453898</v>
       </c>
       <c r="D6">
-        <v>-168.56532462032</v>
+        <v>-168.457261903459</v>
       </c>
       <c r="E6">
-        <v>45.6720727020304</v>
+        <v>45.6929019486315</v>
       </c>
       <c r="F6">
-        <v>28.8637964788904</v>
+        <v>28.6830931089824</v>
       </c>
       <c r="G6">
-        <v>1.57877998722575</v>
+        <v>1.5655822605632</v>
       </c>
       <c r="H6">
-        <v>337.130649240639</v>
+        <v>336.914523806919</v>
       </c>
       <c r="I6">
-        <v>91.3441454040609</v>
+        <v>91.3858038972629</v>
       </c>
       <c r="J6">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2297,34 +2297,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>-14.2013148776945</v>
+        <v>-14.44774513199</v>
       </c>
       <c r="C7">
-        <v>5.1218519838917</v>
+        <v>5.14332070688226</v>
       </c>
       <c r="D7">
-        <v>-168.627379734765</v>
+        <v>-169.166769280469</v>
       </c>
       <c r="E7">
-        <v>45.6863335538202</v>
+        <v>45.6774150507775</v>
       </c>
       <c r="F7">
-        <v>28.8304160232522</v>
+        <v>29.3739744113164</v>
       </c>
       <c r="G7">
-        <v>1.55008682030861</v>
+        <v>1.59084467145717</v>
       </c>
       <c r="H7">
-        <v>337.254759469531</v>
+        <v>338.333538560937</v>
       </c>
       <c r="I7">
-        <v>91.3726671076405</v>
+        <v>91.3548301015551</v>
       </c>
       <c r="J7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2332,31 +2332,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>-15.5638867165212</v>
+        <v>-15.0080114854611</v>
       </c>
       <c r="C8">
-        <v>5.27067191053859</v>
+        <v>5.29328519516287</v>
       </c>
       <c r="D8">
-        <v>-169.989951573592</v>
+        <v>-169.727035633939</v>
       </c>
       <c r="E8">
-        <v>45.6632686881429</v>
+        <v>45.6442291860289</v>
       </c>
       <c r="F8">
-        <v>29.7850293278314</v>
+        <v>29.6426784119177</v>
       </c>
       <c r="G8">
-        <v>1.59885138049449</v>
+        <v>1.6425075250802</v>
       </c>
       <c r="H8">
-        <v>339.979903147185</v>
+        <v>339.454071267879</v>
       </c>
       <c r="I8">
-        <v>91.3265373762858</v>
+        <v>91.2884583720578</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2367,31 +2367,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-16.1718709376545</v>
+        <v>-15.8072102802751</v>
       </c>
       <c r="C9">
-        <v>5.28172181757828</v>
+        <v>5.29990127947318</v>
       </c>
       <c r="D9">
-        <v>-170.597935794726</v>
+        <v>-170.526234428753</v>
       </c>
       <c r="E9">
-        <v>45.6487044478245</v>
+        <v>45.6215500458406</v>
       </c>
       <c r="F9">
-        <v>30.4805107647529</v>
+        <v>30.3216346087017</v>
       </c>
       <c r="G9">
-        <v>1.65734693666503</v>
+        <v>1.61522640349056</v>
       </c>
       <c r="H9">
-        <v>341.195871589451</v>
+        <v>341.052468857507</v>
       </c>
       <c r="I9">
-        <v>91.297408895649</v>
+        <v>91.2431000916812</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2456,98 +2456,98 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-98.408349993598</v>
+        <v>-98.3361606583236</v>
       </c>
       <c r="E2">
-        <v>60.0361156016094</v>
+        <v>60.0238118262564</v>
       </c>
       <c r="F2">
-        <v>34.1596008906424</v>
+        <v>34.1667269898085</v>
       </c>
       <c r="G2">
-        <v>2.3694301966623</v>
+        <v>2.39690919481369</v>
       </c>
       <c r="H2">
-        <v>196.816699987196</v>
+        <v>196.672321316647</v>
       </c>
       <c r="I2">
-        <v>120.072231203219</v>
+        <v>120.047623652513</v>
       </c>
       <c r="J2">
-        <v>0.22</v>
+        <v>0.55</v>
       </c>
       <c r="K2">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>-0.321501739153552</v>
+        <v>-0.455449513217156</v>
       </c>
       <c r="C3">
-        <v>0.518217871074339</v>
+        <v>0.53841868795815</v>
       </c>
       <c r="D3">
-        <v>-98.7298517327514</v>
+        <v>-98.7916101715408</v>
       </c>
       <c r="E3">
-        <v>60.0579013225266</v>
+        <v>60.0947572628057</v>
       </c>
       <c r="F3">
-        <v>33.293818397276</v>
+        <v>33.5258604955329</v>
       </c>
       <c r="G3">
-        <v>2.36037233071869</v>
+        <v>2.37866164473123</v>
       </c>
       <c r="H3">
-        <v>197.459703465503</v>
+        <v>197.583220343082</v>
       </c>
       <c r="I3">
-        <v>120.115802645053</v>
+        <v>120.189514525611</v>
       </c>
       <c r="J3">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="K3">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.530845041865797</v>
+        <v>-0.797134088953066</v>
       </c>
       <c r="C4">
-        <v>0.592946119407894</v>
+        <v>0.609644439951363</v>
       </c>
       <c r="D4">
-        <v>-98.9391950354637</v>
+        <v>-99.1332947472768</v>
       </c>
       <c r="E4">
-        <v>60.0771310858229</v>
+        <v>60.1194466443993</v>
       </c>
       <c r="F4">
-        <v>34.7939682412145</v>
+        <v>35.26548691825</v>
       </c>
       <c r="G4">
-        <v>2.38853833881927</v>
+        <v>2.4655792489715</v>
       </c>
       <c r="H4">
-        <v>197.878390070927</v>
+        <v>198.266589494554</v>
       </c>
       <c r="I4">
-        <v>120.154262171646</v>
+        <v>120.238893288799</v>
       </c>
       <c r="J4">
-        <v>0.14</v>
+        <v>0.07</v>
       </c>
       <c r="K4">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2555,98 +2555,98 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>-0.756845786822002</v>
+        <v>-0.920892463963681</v>
       </c>
       <c r="C5">
-        <v>0.187387459755394</v>
+        <v>0.199298340909437</v>
       </c>
       <c r="D5">
-        <v>-99.1651957804198</v>
+        <v>-99.2570531222873</v>
       </c>
       <c r="E5">
-        <v>60.0479762910754</v>
+        <v>60.0296350573273</v>
       </c>
       <c r="F5">
-        <v>34.9317469930636</v>
+        <v>34.9641278546261</v>
       </c>
       <c r="G5">
-        <v>2.42274385070762</v>
+        <v>2.41953731124602</v>
       </c>
       <c r="H5">
-        <v>198.33039156084</v>
+        <v>198.514106244575</v>
       </c>
       <c r="I5">
-        <v>120.095952582151</v>
+        <v>120.059270114655</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>-1.15395886000016</v>
+        <v>-1.32544138113523</v>
       </c>
       <c r="C6">
-        <v>0.841098887208066</v>
+        <v>0.522459013620582</v>
       </c>
       <c r="D6">
-        <v>-99.5623088535981</v>
+        <v>-99.6616020394588</v>
       </c>
       <c r="E6">
-        <v>60.1205703169699</v>
+        <v>60.0619932328286</v>
       </c>
       <c r="F6">
-        <v>34.2381729891196</v>
+        <v>34.2000544210991</v>
       </c>
       <c r="G6">
-        <v>2.41820410021377</v>
+        <v>2.4035495028677</v>
       </c>
       <c r="H6">
-        <v>199.124617707196</v>
+        <v>199.323204078918</v>
       </c>
       <c r="I6">
-        <v>120.24114063394</v>
+        <v>120.123986465657</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>-1.18239366493774</v>
+        <v>-1.45874710997008</v>
       </c>
       <c r="C7">
-        <v>0.514948575572629</v>
+        <v>0.83784608892665</v>
       </c>
       <c r="D7">
-        <v>-99.5907436585355</v>
+        <v>-99.7949077682938</v>
       </c>
       <c r="E7">
-        <v>60.0459390097077</v>
+        <v>60.1648414039164</v>
       </c>
       <c r="F7">
-        <v>34.1409609860527</v>
+        <v>34.5064995251761</v>
       </c>
       <c r="G7">
-        <v>2.39873980017721</v>
+        <v>2.41475106691858</v>
       </c>
       <c r="H7">
-        <v>199.181487317071</v>
+        <v>199.589815536588</v>
       </c>
       <c r="I7">
-        <v>120.091878019415</v>
+        <v>120.329682807833</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2657,66 +2657,66 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>-1.25074263745967</v>
+        <v>-1.50029047891821</v>
       </c>
       <c r="C8">
-        <v>0.596189760592711</v>
+        <v>0.826158301649516</v>
       </c>
       <c r="D8">
-        <v>-99.6590926310576</v>
+        <v>-99.8364511372416</v>
       </c>
       <c r="E8">
-        <v>60.1228132153518</v>
+        <v>60.1433223376321</v>
       </c>
       <c r="F8">
-        <v>35.4594902973488</v>
+        <v>34.5440815416361</v>
       </c>
       <c r="G8">
-        <v>2.40369487990471</v>
+        <v>2.38672758645597</v>
       </c>
       <c r="H8">
-        <v>199.318185262115</v>
+        <v>199.672902274483</v>
       </c>
       <c r="I8">
-        <v>120.245626430704</v>
+        <v>120.286644675264</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-1.89735977173764</v>
+        <v>-1.81824004589857</v>
       </c>
       <c r="C9">
-        <v>0.80304166395269</v>
+        <v>0.641622168718947</v>
       </c>
       <c r="D9">
-        <v>-100.305709765336</v>
+        <v>-100.154400704222</v>
       </c>
       <c r="E9">
-        <v>60.1605648511397</v>
+        <v>60.1487541867954</v>
       </c>
       <c r="F9">
-        <v>34.9784825930863</v>
+        <v>36.2320218264777</v>
       </c>
       <c r="G9">
-        <v>2.43841514001691</v>
+        <v>2.52625262849354</v>
       </c>
       <c r="H9">
-        <v>200.611419530671</v>
+        <v>200.308801408444</v>
       </c>
       <c r="I9">
-        <v>120.321129702279</v>
+        <v>120.297508373591</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2727,66 +2727,66 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-6.24134202152762</v>
+        <v>-6.82707576828703</v>
       </c>
       <c r="C10">
-        <v>4.9728027160601</v>
+        <v>4.98832192573673</v>
       </c>
       <c r="D10">
-        <v>-104.649692015126</v>
+        <v>-105.16323642661</v>
       </c>
       <c r="E10">
-        <v>60.1797892288877</v>
+        <v>60.198938554604</v>
       </c>
       <c r="F10">
-        <v>33.2423966284</v>
+        <v>33.7719191996484</v>
       </c>
       <c r="G10">
-        <v>2.4305772664312</v>
+        <v>2.52539867520743</v>
       </c>
       <c r="H10">
-        <v>209.299384030251</v>
+        <v>210.326472853221</v>
       </c>
       <c r="I10">
-        <v>120.359578457775</v>
+        <v>120.397877109208</v>
       </c>
       <c r="J10">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-6.58748717620671</v>
+        <v>-6.9073558744636</v>
       </c>
       <c r="C11">
-        <v>4.92501994156517</v>
+        <v>4.94010636405226</v>
       </c>
       <c r="D11">
-        <v>-104.995837169805</v>
+        <v>-105.243516532787</v>
       </c>
       <c r="E11">
-        <v>60.1583634236408</v>
+        <v>60.2100951602827</v>
       </c>
       <c r="F11">
-        <v>32.2780630390738</v>
+        <v>32.6028890210482</v>
       </c>
       <c r="G11">
-        <v>2.35274503440725</v>
+        <v>2.41872326875226</v>
       </c>
       <c r="H11">
-        <v>209.991674339609</v>
+        <v>210.487033065574</v>
       </c>
       <c r="I11">
-        <v>120.316726847282</v>
+        <v>120.420190320565</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2797,37 +2797,37 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-7.3024161508339</v>
+        <v>-6.96611515039029</v>
       </c>
       <c r="C12">
-        <v>4.69713455260869</v>
+        <v>4.71989469250818</v>
       </c>
       <c r="D12">
-        <v>-105.710766144432</v>
+        <v>-105.302275808714</v>
       </c>
       <c r="E12">
-        <v>60.0496984751582</v>
+        <v>60.1308451995421</v>
       </c>
       <c r="F12">
-        <v>32.9560217267781</v>
+        <v>33.8944643286734</v>
       </c>
       <c r="G12">
-        <v>2.37279712741255</v>
+        <v>2.41813423536093</v>
       </c>
       <c r="H12">
-        <v>211.421532288863</v>
+        <v>210.604551617427</v>
       </c>
       <c r="I12">
-        <v>120.099396950316</v>
+        <v>120.261690399084</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2835,63 +2835,63 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>-7.5325843861413</v>
+        <v>-7.05264441045463</v>
       </c>
       <c r="C13">
-        <v>5.00056703914746</v>
+        <v>5.01317186690459</v>
       </c>
       <c r="D13">
-        <v>-105.940934379739</v>
+        <v>-105.388805068778</v>
       </c>
       <c r="E13">
-        <v>60.234260454284</v>
+        <v>60.2487307087935</v>
       </c>
       <c r="F13">
-        <v>34.7163007339751</v>
+        <v>34.1410475166661</v>
       </c>
       <c r="G13">
-        <v>2.53855414912857</v>
+        <v>2.48271522751311</v>
       </c>
       <c r="H13">
-        <v>211.881868759478</v>
+        <v>210.777610137556</v>
       </c>
       <c r="I13">
-        <v>120.468520908568</v>
+        <v>120.497461417587</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="K13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-7.53612291488089</v>
+        <v>-7.35434116693949</v>
       </c>
       <c r="C14">
-        <v>4.96626690845941</v>
+        <v>4.9596131511452</v>
       </c>
       <c r="D14">
-        <v>-105.944472908479</v>
+        <v>-105.690501825263</v>
       </c>
       <c r="E14">
-        <v>60.2812322051746</v>
+        <v>60.2211698350686</v>
       </c>
       <c r="F14">
-        <v>33.3807293614539</v>
+        <v>33.0655080022456</v>
       </c>
       <c r="G14">
-        <v>2.43643792090424</v>
+        <v>2.37901331317649</v>
       </c>
       <c r="H14">
-        <v>211.888945816958</v>
+        <v>211.381003650526</v>
       </c>
       <c r="I14">
-        <v>120.562464410349</v>
+        <v>120.442339670137</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2902,31 +2902,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-7.62745093868414</v>
+        <v>-7.46172054289416</v>
       </c>
       <c r="C15">
-        <v>4.71171766763494</v>
+        <v>4.69145830773012</v>
       </c>
       <c r="D15">
-        <v>-106.035800932282</v>
+        <v>-105.797881201218</v>
       </c>
       <c r="E15">
-        <v>60.0824752479045</v>
+        <v>60.0824931743184</v>
       </c>
       <c r="F15">
-        <v>34.6270020811155</v>
+        <v>33.0823598799679</v>
       </c>
       <c r="G15">
-        <v>2.49091781720939</v>
+        <v>2.41055496702267</v>
       </c>
       <c r="H15">
-        <v>212.071601864564</v>
+        <v>211.595762402435</v>
       </c>
       <c r="I15">
-        <v>120.164950495809</v>
+        <v>120.164986348637</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2937,66 +2937,66 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>-7.68051244577622</v>
+        <v>-8.27629829127293</v>
       </c>
       <c r="C16">
-        <v>4.73151202298587</v>
+        <v>4.73909904231004</v>
       </c>
       <c r="D16">
-        <v>-106.088862439374</v>
+        <v>-106.612458949597</v>
       </c>
       <c r="E16">
-        <v>60.1818842751601</v>
+        <v>60.1526246744904</v>
       </c>
       <c r="F16">
-        <v>34.7778819649712</v>
+        <v>35.1535416460781</v>
       </c>
       <c r="G16">
-        <v>2.45074457017097</v>
+        <v>2.48719147563987</v>
       </c>
       <c r="H16">
-        <v>212.177724878748</v>
+        <v>213.224917899193</v>
       </c>
       <c r="I16">
-        <v>120.36376855032</v>
+        <v>120.305249348981</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>-8.26331851365071</v>
+        <v>-8.93618313739877</v>
       </c>
       <c r="C17">
-        <v>4.72764501289124</v>
+        <v>4.71708516433049</v>
       </c>
       <c r="D17">
-        <v>-106.671668507249</v>
+        <v>-107.272343795722</v>
       </c>
       <c r="E17">
-        <v>60.1119395554663</v>
+        <v>60.1724680839807</v>
       </c>
       <c r="F17">
-        <v>34.0122639198071</v>
+        <v>34.7545257707312</v>
       </c>
       <c r="G17">
-        <v>2.46274953661514</v>
+        <v>2.48920541960231</v>
       </c>
       <c r="H17">
-        <v>213.343337014497</v>
+        <v>214.544687591445</v>
       </c>
       <c r="I17">
-        <v>120.223879110933</v>
+        <v>120.344936167961</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3061,28 +3061,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-152.1086253495</v>
+        <v>-152.142092027297</v>
       </c>
       <c r="E2">
-        <v>54.3795207301631</v>
+        <v>54.4016526221851</v>
       </c>
       <c r="F2">
-        <v>24.7647794948234</v>
+        <v>24.8680832932354</v>
       </c>
       <c r="G2">
-        <v>1.42910679629319</v>
+        <v>1.43854788983017</v>
       </c>
       <c r="H2">
-        <v>304.217250699</v>
+        <v>304.284184054595</v>
       </c>
       <c r="I2">
-        <v>108.759041460326</v>
+        <v>108.80330524437</v>
       </c>
       <c r="J2">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
       <c r="K2">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3090,34 +3090,34 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>-8.14467045269882</v>
+        <v>-7.7243794593746</v>
       </c>
       <c r="C3">
-        <v>5.71363628289315</v>
+        <v>5.67524320070242</v>
       </c>
       <c r="D3">
-        <v>-160.253295802199</v>
+        <v>-159.866471486672</v>
       </c>
       <c r="E3">
-        <v>55.4200020368581</v>
+        <v>55.3770925530268</v>
       </c>
       <c r="F3">
-        <v>24.0115100102229</v>
+        <v>23.6004944717939</v>
       </c>
       <c r="G3">
-        <v>1.44031251011855</v>
+        <v>1.37665509493813</v>
       </c>
       <c r="H3">
-        <v>320.506591604398</v>
+        <v>319.732942973344</v>
       </c>
       <c r="I3">
-        <v>110.840004073716</v>
+        <v>110.754185106054</v>
       </c>
       <c r="J3">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="K3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3125,28 +3125,28 @@
         <v>28</v>
       </c>
       <c r="B4">
-        <v>-24.4597547727519</v>
+        <v>-24.1092339384308</v>
       </c>
       <c r="C4">
-        <v>6.96855396000319</v>
+        <v>7.00040280232988</v>
       </c>
       <c r="D4">
-        <v>-176.568380122252</v>
+        <v>-176.251325965728</v>
       </c>
       <c r="E4">
-        <v>55.122206361745</v>
+        <v>55.0626227120223</v>
       </c>
       <c r="F4">
-        <v>24.0759292867289</v>
+        <v>23.6145137293031</v>
       </c>
       <c r="G4">
-        <v>1.46898887620689</v>
+        <v>1.45650672360281</v>
       </c>
       <c r="H4">
-        <v>353.136760244505</v>
+        <v>352.502651931456</v>
       </c>
       <c r="I4">
-        <v>110.24441272349</v>
+        <v>110.125245424045</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3160,31 +3160,31 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>-32.4065522421826</v>
+        <v>-32.4895023524882</v>
       </c>
       <c r="C5">
-        <v>9.29359166135452</v>
+        <v>9.31510908300763</v>
       </c>
       <c r="D5">
-        <v>-184.515177591683</v>
+        <v>-184.631594379786</v>
       </c>
       <c r="E5">
-        <v>56.1427673039681</v>
+        <v>56.1351224063416</v>
       </c>
       <c r="F5">
-        <v>22.7772449004167</v>
+        <v>22.8348016341232</v>
       </c>
       <c r="G5">
-        <v>1.40513523875753</v>
+        <v>1.40221508439652</v>
       </c>
       <c r="H5">
-        <v>369.030355183365</v>
+        <v>369.263188759571</v>
       </c>
       <c r="I5">
-        <v>112.285534607936</v>
+        <v>112.270244812683</v>
       </c>
       <c r="J5">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3195,28 +3195,28 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>-33.1901624002324</v>
+        <v>-33.5851036522493</v>
       </c>
       <c r="C6">
-        <v>9.30962556689382</v>
+        <v>9.33344085437119</v>
       </c>
       <c r="D6">
-        <v>-185.298787749733</v>
+        <v>-185.727195679546</v>
       </c>
       <c r="E6">
-        <v>56.1482009702916</v>
+        <v>56.1429715960069</v>
       </c>
       <c r="F6">
-        <v>23.5738583330403</v>
+        <v>24.0135748630719</v>
       </c>
       <c r="G6">
-        <v>1.43750278500135</v>
+        <v>1.48536640853157</v>
       </c>
       <c r="H6">
-        <v>370.597575499466</v>
+        <v>371.454391359093</v>
       </c>
       <c r="I6">
-        <v>112.296401940583</v>
+        <v>112.285943192014</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3230,31 +3230,31 @@
         <v>31</v>
       </c>
       <c r="B7">
-        <v>-85.2133535167049</v>
+        <v>-85.1316890456325</v>
       </c>
       <c r="C7">
-        <v>15.4206288187076</v>
+        <v>15.4133391960361</v>
       </c>
       <c r="D7">
-        <v>-237.321978866205</v>
+        <v>-237.27378107293</v>
       </c>
       <c r="E7">
-        <v>49.9242953314237</v>
+        <v>49.8668507002329</v>
       </c>
       <c r="F7">
-        <v>23.297661129364</v>
+        <v>23.1216513045718</v>
       </c>
       <c r="G7">
-        <v>1.21684115850567</v>
+        <v>1.19653956500811</v>
       </c>
       <c r="H7">
-        <v>474.643957732411</v>
+        <v>474.54756214586</v>
       </c>
       <c r="I7">
-        <v>99.8485906628474</v>
+        <v>99.7337014004659</v>
       </c>
       <c r="J7">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3265,31 +3265,31 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>-85.369534712551</v>
+        <v>-85.7311350777133</v>
       </c>
       <c r="C8">
-        <v>15.4469820433486</v>
+        <v>15.4314549950954</v>
       </c>
       <c r="D8">
-        <v>-237.478160062051</v>
+        <v>-237.873227105011</v>
       </c>
       <c r="E8">
-        <v>49.9077539011189</v>
+        <v>49.8985714472286</v>
       </c>
       <c r="F8">
-        <v>24.1112330168982</v>
+        <v>24.5442427419068</v>
       </c>
       <c r="G8">
-        <v>1.26294761124456</v>
+        <v>1.27754476729282</v>
       </c>
       <c r="H8">
-        <v>474.956320124103</v>
+        <v>475.746454210021</v>
       </c>
       <c r="I8">
-        <v>99.8155078022378</v>
+        <v>99.7971428944572</v>
       </c>
       <c r="J8">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3300,28 +3300,28 @@
         <v>33</v>
       </c>
       <c r="B9">
-        <v>-92.5791969960202</v>
+        <v>-92.526293203657</v>
       </c>
       <c r="C9">
-        <v>15.5393400725355</v>
+        <v>15.5098344118271</v>
       </c>
       <c r="D9">
-        <v>-244.68782234552</v>
+        <v>-244.668385230954</v>
       </c>
       <c r="E9">
-        <v>50.6418527146772</v>
+        <v>50.5990526776056</v>
       </c>
       <c r="F9">
-        <v>23.0196951042299</v>
+        <v>22.5086599623272</v>
       </c>
       <c r="G9">
-        <v>1.2193383052514</v>
+        <v>1.20576307101245</v>
       </c>
       <c r="H9">
-        <v>489.375644691041</v>
+        <v>489.336770461909</v>
       </c>
       <c r="I9">
-        <v>101.283705429354</v>
+        <v>101.198105355211</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3335,31 +3335,31 @@
         <v>34</v>
       </c>
       <c r="B10">
-        <v>-92.7266843062433</v>
+        <v>-92.5801619166341</v>
       </c>
       <c r="C10">
-        <v>15.556569243509</v>
+        <v>15.5238507793225</v>
       </c>
       <c r="D10">
-        <v>-244.835309655744</v>
+        <v>-244.722253943931</v>
       </c>
       <c r="E10">
-        <v>50.5920061802427</v>
+        <v>50.6480681073414</v>
       </c>
       <c r="F10">
-        <v>23.2858033373952</v>
+        <v>23.4127878644702</v>
       </c>
       <c r="G10">
-        <v>1.22907864880075</v>
+        <v>1.25650212742973</v>
       </c>
       <c r="H10">
-        <v>489.670619311487</v>
+        <v>489.444507887863</v>
       </c>
       <c r="I10">
-        <v>101.184012360485</v>
+        <v>101.296136214683</v>
       </c>
       <c r="J10">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3370,28 +3370,28 @@
         <v>35</v>
       </c>
       <c r="B11">
-        <v>-92.7338346669624</v>
+        <v>-92.5974668434346</v>
       </c>
       <c r="C11">
-        <v>15.5221752061465</v>
+        <v>15.5212869172825</v>
       </c>
       <c r="D11">
-        <v>-244.842460016463</v>
+        <v>-244.739558870732</v>
       </c>
       <c r="E11">
-        <v>50.6023578830034</v>
+        <v>50.6564336122829</v>
       </c>
       <c r="F11">
-        <v>22.6280114718274</v>
+        <v>23.1499827258518</v>
       </c>
       <c r="G11">
-        <v>1.20390159915058</v>
+        <v>1.24136971711325</v>
       </c>
       <c r="H11">
-        <v>489.684920032925</v>
+        <v>489.479117741464</v>
       </c>
       <c r="I11">
-        <v>101.204715766007</v>
+        <v>101.312867224566</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3405,28 +3405,28 @@
         <v>36</v>
       </c>
       <c r="B12">
-        <v>-107.971807714614</v>
+        <v>-107.894756911747</v>
       </c>
       <c r="C12">
-        <v>15.7460493045435</v>
+        <v>15.7700427130689</v>
       </c>
       <c r="D12">
-        <v>-260.080433064115</v>
+        <v>-260.036848939044</v>
       </c>
       <c r="E12">
-        <v>50.2746376844051</v>
+        <v>50.2818431856065</v>
       </c>
       <c r="F12">
-        <v>22.1733246929052</v>
+        <v>22.2895128478507</v>
       </c>
       <c r="G12">
-        <v>1.18158767606247</v>
+        <v>1.19881799528131</v>
       </c>
       <c r="H12">
-        <v>520.16086612823</v>
+        <v>520.073697878089</v>
       </c>
       <c r="I12">
-        <v>100.54927536881</v>
+        <v>100.563686371213</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>37</v>
       </c>
       <c r="B13">
-        <v>-108.997779215176</v>
+        <v>-108.746794931617</v>
       </c>
       <c r="C13">
-        <v>15.7422985491768</v>
+        <v>15.7557427180272</v>
       </c>
       <c r="D13">
-        <v>-261.106404564676</v>
+        <v>-260.888886958914</v>
       </c>
       <c r="E13">
-        <v>50.2975855565902</v>
+        <v>50.2733956168007</v>
       </c>
       <c r="F13">
-        <v>23.072241728196</v>
+        <v>22.9154647780847</v>
       </c>
       <c r="G13">
-        <v>1.22880669945082</v>
+        <v>1.23092795361413</v>
       </c>
       <c r="H13">
-        <v>522.212809129352</v>
+        <v>521.777773917828</v>
       </c>
       <c r="I13">
-        <v>100.59517111318</v>
+        <v>100.546791233601</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3475,28 +3475,28 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <v>-109.106515777207</v>
+        <v>-109.056603019274</v>
       </c>
       <c r="C14">
-        <v>15.7548339608396</v>
+        <v>15.7624127168781</v>
       </c>
       <c r="D14">
-        <v>-261.215141126708</v>
+        <v>-261.198695046571</v>
       </c>
       <c r="E14">
-        <v>50.247981422602</v>
+        <v>50.3082227472336</v>
       </c>
       <c r="F14">
-        <v>23.3079563645863</v>
+        <v>23.2829643346078</v>
       </c>
       <c r="G14">
-        <v>1.23053077650344</v>
+        <v>1.24277913411228</v>
       </c>
       <c r="H14">
-        <v>522.430282253415</v>
+        <v>522.397390093142</v>
       </c>
       <c r="I14">
-        <v>100.495962845204</v>
+        <v>100.616445494467</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3510,28 +3510,28 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <v>-114.939957739387</v>
+        <v>-115.245154379094</v>
       </c>
       <c r="C15">
-        <v>16.0389719344014</v>
+        <v>16.0443777259995</v>
       </c>
       <c r="D15">
-        <v>-267.048583088888</v>
+        <v>-267.387246406391</v>
       </c>
       <c r="E15">
-        <v>51.0857997650512</v>
+        <v>51.0757109444755</v>
       </c>
       <c r="F15">
-        <v>20.9156882924593</v>
+        <v>21.2449859638142</v>
       </c>
       <c r="G15">
-        <v>1.13020137875954</v>
+        <v>1.16255119132688</v>
       </c>
       <c r="H15">
-        <v>534.097166177776</v>
+        <v>534.774492812781</v>
       </c>
       <c r="I15">
-        <v>102.171599530102</v>
+        <v>102.151421888951</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3545,28 +3545,28 @@
         <v>40</v>
       </c>
       <c r="B16">
-        <v>-116.027437506527</v>
+        <v>-116.096392775876</v>
       </c>
       <c r="C16">
-        <v>16.0371880332277</v>
+        <v>16.0461676725263</v>
       </c>
       <c r="D16">
-        <v>-268.136062856027</v>
+        <v>-268.238484803173</v>
       </c>
       <c r="E16">
-        <v>51.0254740804563</v>
+        <v>51.0631267220606</v>
       </c>
       <c r="F16">
-        <v>21.9229664556797</v>
+        <v>22.1194097795593</v>
       </c>
       <c r="G16">
-        <v>1.1858431600029</v>
+        <v>1.20990871473845</v>
       </c>
       <c r="H16">
-        <v>536.272125712054</v>
+        <v>536.476969606346</v>
       </c>
       <c r="I16">
-        <v>102.050948160913</v>
+        <v>102.126253444121</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3580,28 +3580,28 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>-116.222153433972</v>
+        <v>-116.256620249844</v>
       </c>
       <c r="C17">
-        <v>16.0354085699106</v>
+        <v>16.0459173790855</v>
       </c>
       <c r="D17">
-        <v>-268.330778783472</v>
+        <v>-268.398712277141</v>
       </c>
       <c r="E17">
-        <v>51.0724463377651</v>
+        <v>51.0634598097</v>
       </c>
       <c r="F17">
-        <v>21.9656836788359</v>
+        <v>22.057600939801</v>
       </c>
       <c r="G17">
-        <v>1.19753112644528</v>
+        <v>1.19247118896091</v>
       </c>
       <c r="H17">
-        <v>536.661557566944</v>
+        <v>536.797424554283</v>
       </c>
       <c r="I17">
-        <v>102.14489267553</v>
+        <v>102.1269196194</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3666,28 +3666,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-10.0564438164941</v>
+        <v>-9.848083639944</v>
       </c>
       <c r="E2">
-        <v>54.9487251906966</v>
+        <v>54.973696409519</v>
       </c>
       <c r="F2">
-        <v>24.5924747328848</v>
+        <v>24.3701665622476</v>
       </c>
       <c r="G2">
-        <v>1.44745507827016</v>
+        <v>1.43754895799662</v>
       </c>
       <c r="H2">
-        <v>20.1128876329882</v>
+        <v>19.696167279888</v>
       </c>
       <c r="I2">
-        <v>109.897450381393</v>
+        <v>109.947392819038</v>
       </c>
       <c r="J2">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="K2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3695,34 +3695,34 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>-6.99842920889905</v>
+        <v>-7.31817304999681</v>
       </c>
       <c r="C3">
-        <v>3.10208690843684</v>
+        <v>3.13587856407351</v>
       </c>
       <c r="D3">
-        <v>-17.0548730253932</v>
+        <v>-17.1662566899408</v>
       </c>
       <c r="E3">
-        <v>54.6979255293546</v>
+        <v>54.6410215097429</v>
       </c>
       <c r="F3">
-        <v>24.2536233099952</v>
+        <v>24.1296495306287</v>
       </c>
       <c r="G3">
-        <v>1.42723314908844</v>
+        <v>1.41944865197381</v>
       </c>
       <c r="H3">
-        <v>34.1097460507864</v>
+        <v>34.3325133798816</v>
       </c>
       <c r="I3">
-        <v>109.395851058709</v>
+        <v>109.282043019486</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3730,31 +3730,31 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>-40.9599391546026</v>
+        <v>-41.0106669318251</v>
       </c>
       <c r="C4">
-        <v>11.0922410353479</v>
+        <v>11.0938014068473</v>
       </c>
       <c r="D4">
-        <v>-51.0163829710967</v>
+        <v>-50.858750571769</v>
       </c>
       <c r="E4">
-        <v>56.6872679717162</v>
+        <v>56.7169375295835</v>
       </c>
       <c r="F4">
-        <v>23.6418638430575</v>
+        <v>23.6820867236228</v>
       </c>
       <c r="G4">
-        <v>1.45742494344595</v>
+        <v>1.46049523937019</v>
       </c>
       <c r="H4">
-        <v>102.032765942193</v>
+        <v>101.717501143538</v>
       </c>
       <c r="I4">
-        <v>113.374535943432</v>
+        <v>113.433875059167</v>
       </c>
       <c r="J4">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3765,31 +3765,31 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>-46.1021829215182</v>
+        <v>-46.3171013326015</v>
       </c>
       <c r="C5">
-        <v>11.0635825363555</v>
+        <v>11.0808166783648</v>
       </c>
       <c r="D5">
-        <v>-56.1586267380124</v>
+        <v>-56.1651849725454</v>
       </c>
       <c r="E5">
-        <v>56.2849589806111</v>
+        <v>56.3009107326454</v>
       </c>
       <c r="F5">
-        <v>22.8577182577244</v>
+        <v>22.9162584541173</v>
       </c>
       <c r="G5">
-        <v>1.40997311003226</v>
+        <v>1.40474203614947</v>
       </c>
       <c r="H5">
-        <v>112.317253476025</v>
+        <v>112.330369945091</v>
       </c>
       <c r="I5">
-        <v>112.569917961222</v>
+        <v>112.601821465291</v>
       </c>
       <c r="J5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3800,28 +3800,28 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>-59.6900356113942</v>
+        <v>-60.1836341425707</v>
       </c>
       <c r="C6">
-        <v>10.3023335313924</v>
+        <v>10.3230843384457</v>
       </c>
       <c r="D6">
-        <v>-69.7464794278883</v>
+        <v>-70.0317177825146</v>
       </c>
       <c r="E6">
-        <v>54.5759652543254</v>
+        <v>54.5383344921627</v>
       </c>
       <c r="F6">
-        <v>22.4383255906159</v>
+        <v>22.7205159437738</v>
       </c>
       <c r="G6">
-        <v>1.31628685933056</v>
+        <v>1.35343459286828</v>
       </c>
       <c r="H6">
-        <v>139.492958855777</v>
+        <v>140.063435565029</v>
       </c>
       <c r="I6">
-        <v>109.151930508651</v>
+        <v>109.076668984325</v>
       </c>
       <c r="J6">
         <v>0.06</v>
@@ -3835,28 +3835,28 @@
         <v>44</v>
       </c>
       <c r="B7">
-        <v>-60.0027196101987</v>
+        <v>-60.5459089319141</v>
       </c>
       <c r="C7">
-        <v>10.2505108729855</v>
+        <v>10.2635966273493</v>
       </c>
       <c r="D7">
-        <v>-70.0591634266929</v>
+        <v>-70.3939925718581</v>
       </c>
       <c r="E7">
-        <v>54.6300484661557</v>
+        <v>54.6702819202383</v>
       </c>
       <c r="F7">
-        <v>23.2600481605957</v>
+        <v>23.8053532172798</v>
       </c>
       <c r="G7">
-        <v>1.35369344130916</v>
+        <v>1.42790482303874</v>
       </c>
       <c r="H7">
-        <v>140.118326853386</v>
+        <v>140.787985143716</v>
       </c>
       <c r="I7">
-        <v>109.260096932311</v>
+        <v>109.340563840477</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3870,28 +3870,28 @@
         <v>45</v>
       </c>
       <c r="B8">
-        <v>-82.7277582043125</v>
+        <v>-83.0299948048866</v>
       </c>
       <c r="C8">
-        <v>12.6015505821654</v>
+        <v>12.6304978060829</v>
       </c>
       <c r="D8">
-        <v>-92.7842020208067</v>
+        <v>-92.8780784448307</v>
       </c>
       <c r="E8">
-        <v>53.4881884030968</v>
+        <v>53.4636632158913</v>
       </c>
       <c r="F8">
-        <v>23.7287138435596</v>
+        <v>23.9240939656178</v>
       </c>
       <c r="G8">
-        <v>1.37677738923495</v>
+        <v>1.38225473665949</v>
       </c>
       <c r="H8">
-        <v>185.568404041613</v>
+        <v>185.756156889661</v>
       </c>
       <c r="I8">
-        <v>106.976376806194</v>
+        <v>106.927326431783</v>
       </c>
       <c r="J8">
         <v>0.05</v>
@@ -3905,31 +3905,31 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <v>-82.7278329313909</v>
+        <v>-83.2224233667267</v>
       </c>
       <c r="C9">
-        <v>12.6226821257046</v>
+        <v>12.6356756072892</v>
       </c>
       <c r="D9">
-        <v>-92.7842767478848</v>
+        <v>-93.0705070066708</v>
       </c>
       <c r="E9">
-        <v>53.43033254457</v>
+        <v>53.4933989640393</v>
       </c>
       <c r="F9">
-        <v>24.2658690619497</v>
+        <v>24.5877857482916</v>
       </c>
       <c r="G9">
-        <v>1.39268709196802</v>
+        <v>1.3977743339214</v>
       </c>
       <c r="H9">
-        <v>185.56855349577</v>
+        <v>186.141014013342</v>
       </c>
       <c r="I9">
-        <v>106.86066508914</v>
+        <v>106.986797928079</v>
       </c>
       <c r="J9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <v>-87.9508163091605</v>
+        <v>-88.4789122418452</v>
       </c>
       <c r="C10">
-        <v>12.9381218904265</v>
+        <v>12.9449709446657</v>
       </c>
       <c r="D10">
-        <v>-98.0072601256546</v>
+        <v>-98.3269958817892</v>
       </c>
       <c r="E10">
-        <v>53.2339706803497</v>
+        <v>53.2137337378735</v>
       </c>
       <c r="F10">
-        <v>22.5252850450448</v>
+        <v>23.0235522773046</v>
       </c>
       <c r="G10">
-        <v>1.3022888256195</v>
+        <v>1.35087227295168</v>
       </c>
       <c r="H10">
-        <v>196.014520251309</v>
+        <v>196.653991763578</v>
       </c>
       <c r="I10">
-        <v>106.467941360699</v>
+        <v>106.427467475747</v>
       </c>
       <c r="J10">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3975,28 +3975,28 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <v>-88.5265367648359</v>
+        <v>-88.8189070929219</v>
       </c>
       <c r="C11">
-        <v>12.9307615652765</v>
+        <v>12.9489486620849</v>
       </c>
       <c r="D11">
-        <v>-98.58298058133</v>
+        <v>-98.666990732866</v>
       </c>
       <c r="E11">
-        <v>53.1996188837849</v>
+        <v>53.1283901162887</v>
       </c>
       <c r="F11">
-        <v>23.4960535411839</v>
+        <v>23.6299586076645</v>
       </c>
       <c r="G11">
-        <v>1.34961804770468</v>
+        <v>1.37333220162371</v>
       </c>
       <c r="H11">
-        <v>197.16596116266</v>
+        <v>197.333981465732</v>
       </c>
       <c r="I11">
-        <v>106.39923776757</v>
+        <v>106.256780232577</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4010,31 +4010,31 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>-98.3437896890436</v>
+        <v>-98.4158785309843</v>
       </c>
       <c r="C12">
-        <v>13.9467861786422</v>
+        <v>13.9423811281632</v>
       </c>
       <c r="D12">
-        <v>-108.400233505538</v>
+        <v>-108.263962170928</v>
       </c>
       <c r="E12">
-        <v>55.8819298503356</v>
+        <v>55.8295878809314</v>
       </c>
       <c r="F12">
-        <v>21.6099743741503</v>
+        <v>21.4954577475677</v>
       </c>
       <c r="G12">
-        <v>1.3281983359157</v>
+        <v>1.30853976510038</v>
       </c>
       <c r="H12">
-        <v>216.800467011076</v>
+        <v>216.527924341857</v>
       </c>
       <c r="I12">
-        <v>111.763859700671</v>
+        <v>111.659175761863</v>
       </c>
       <c r="J12">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4045,28 +4045,28 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>-99.1178187323614</v>
+        <v>-99.0890252584004</v>
       </c>
       <c r="C13">
-        <v>13.9754058022294</v>
+        <v>13.9806086230085</v>
       </c>
       <c r="D13">
-        <v>-109.174262548855</v>
+        <v>-108.937108898345</v>
       </c>
       <c r="E13">
-        <v>55.9155675249395</v>
+        <v>55.9231239275154</v>
       </c>
       <c r="F13">
-        <v>22.4666742497225</v>
+        <v>22.542925026774</v>
       </c>
       <c r="G13">
-        <v>1.33631839345231</v>
+        <v>1.35942716523712</v>
       </c>
       <c r="H13">
-        <v>218.348525097711</v>
+        <v>217.874217796689</v>
       </c>
       <c r="I13">
-        <v>111.831135049879</v>
+        <v>111.846247855031</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -4080,28 +4080,28 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>-99.4675111752497</v>
+        <v>-99.5767626786538</v>
       </c>
       <c r="C14">
-        <v>13.9334417799996</v>
+        <v>13.9455250055445</v>
       </c>
       <c r="D14">
-        <v>-109.523954991744</v>
+        <v>-109.424846318598</v>
       </c>
       <c r="E14">
-        <v>55.8240020163853</v>
+        <v>55.8739161481565</v>
       </c>
       <c r="F14">
-        <v>22.5352426029546</v>
+        <v>22.4247993886392</v>
       </c>
       <c r="G14">
-        <v>1.3587632933645</v>
+        <v>1.34545389567033</v>
       </c>
       <c r="H14">
-        <v>219.047909983488</v>
+        <v>218.849692637196</v>
       </c>
       <c r="I14">
-        <v>111.648004032771</v>
+        <v>111.747832296313</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -4115,28 +4115,28 @@
         <v>48</v>
       </c>
       <c r="B15">
-        <v>-99.6790847539673</v>
+        <v>-99.9365788999208</v>
       </c>
       <c r="C15">
-        <v>13.9734192714634</v>
+        <v>13.9818877906654</v>
       </c>
       <c r="D15">
-        <v>-109.735528570461</v>
+        <v>-109.784662539865</v>
       </c>
       <c r="E15">
-        <v>55.9320219601967</v>
+        <v>55.9545543896737</v>
       </c>
       <c r="F15">
-        <v>22.7854525796185</v>
+        <v>22.8874609472774</v>
       </c>
       <c r="G15">
-        <v>1.33400478752833</v>
+        <v>1.35632163951326</v>
       </c>
       <c r="H15">
-        <v>219.471057140923</v>
+        <v>219.56932507973</v>
       </c>
       <c r="I15">
-        <v>111.864043920393</v>
+        <v>111.909108779347</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4150,31 +4150,31 @@
         <v>49</v>
       </c>
       <c r="B16">
-        <v>-120.292149198499</v>
+        <v>-120.965188036544</v>
       </c>
       <c r="C16">
-        <v>15.775948633413</v>
+        <v>15.7832900429257</v>
       </c>
       <c r="D16">
-        <v>-130.348593014993</v>
+        <v>-130.813271676488</v>
       </c>
       <c r="E16">
-        <v>55.0176442075873</v>
+        <v>54.9910701762708</v>
       </c>
       <c r="F16">
-        <v>22.3190967237712</v>
+        <v>23.5545785404397</v>
       </c>
       <c r="G16">
-        <v>1.34664538794512</v>
+        <v>1.39396393056479</v>
       </c>
       <c r="H16">
-        <v>260.697186029987</v>
+        <v>261.626543352976</v>
       </c>
       <c r="I16">
-        <v>110.035288415175</v>
+        <v>109.982140352542</v>
       </c>
       <c r="J16">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4185,31 +4185,31 @@
         <v>50</v>
       </c>
       <c r="B17">
-        <v>-120.753271454535</v>
+        <v>-120.971851666009</v>
       </c>
       <c r="C17">
-        <v>15.7795167582086</v>
+        <v>15.75967717613</v>
       </c>
       <c r="D17">
-        <v>-130.809715271029</v>
+        <v>-130.819935305953</v>
       </c>
       <c r="E17">
-        <v>54.9976673063636</v>
+        <v>55.0021158224595</v>
       </c>
       <c r="F17">
-        <v>23.3874718752624</v>
+        <v>22.956782511016</v>
       </c>
       <c r="G17">
-        <v>1.39919510861993</v>
+        <v>1.38392823265972</v>
       </c>
       <c r="H17">
-        <v>261.619430542058</v>
+        <v>261.639870611906</v>
       </c>
       <c r="I17">
-        <v>109.995334612727</v>
+        <v>110.004231644919</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4220,31 +4220,31 @@
         <v>51</v>
       </c>
       <c r="B18">
-        <v>-121.180890277823</v>
+        <v>-121.048601045151</v>
       </c>
       <c r="C18">
-        <v>15.7679965718309</v>
+        <v>15.7845266381311</v>
       </c>
       <c r="D18">
-        <v>-131.237334094317</v>
+        <v>-130.896684685094</v>
       </c>
       <c r="E18">
-        <v>55.0170715916974</v>
+        <v>55.0538170079711</v>
       </c>
       <c r="F18">
-        <v>23.7383708879603</v>
+        <v>23.4874196543978</v>
       </c>
       <c r="G18">
-        <v>1.39472947209811</v>
+        <v>1.39865956864467</v>
       </c>
       <c r="H18">
-        <v>262.474668188634</v>
+        <v>261.793369370189</v>
       </c>
       <c r="I18">
-        <v>110.034143183395</v>
+        <v>110.107634015942</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4252,31 +4252,31 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>-124.712985315276</v>
+        <v>-125.292868718497</v>
       </c>
       <c r="C19">
-        <v>15.8370601932635</v>
+        <v>15.8715120304917</v>
       </c>
       <c r="D19">
-        <v>-134.769429131771</v>
+        <v>-135.140952358441</v>
       </c>
       <c r="E19">
-        <v>54.6522414926207</v>
+        <v>54.6727381195416</v>
       </c>
       <c r="F19">
-        <v>21.9467682941775</v>
+        <v>22.8080960914556</v>
       </c>
       <c r="G19">
-        <v>1.32298155698652</v>
+        <v>1.37752982537435</v>
       </c>
       <c r="H19">
-        <v>269.538858263541</v>
+        <v>270.281904716882</v>
       </c>
       <c r="I19">
-        <v>109.304482985241</v>
+        <v>109.345476239083</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4287,34 +4287,34 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>-124.788411205744</v>
+        <v>-125.401613194934</v>
       </c>
       <c r="C20">
-        <v>15.8457323559804</v>
+        <v>15.8454838780912</v>
       </c>
       <c r="D20">
-        <v>-134.844855022238</v>
+        <v>-135.249696834878</v>
       </c>
       <c r="E20">
-        <v>54.6102190242958</v>
+        <v>54.6438158310958</v>
       </c>
       <c r="F20">
-        <v>22.3175686924131</v>
+        <v>22.4523993821924</v>
       </c>
       <c r="G20">
-        <v>1.32385309030345</v>
+        <v>1.35423310681553</v>
       </c>
       <c r="H20">
-        <v>269.689710044477</v>
+        <v>270.499393669756</v>
       </c>
       <c r="I20">
-        <v>109.220438048592</v>
+        <v>109.287631662192</v>
       </c>
       <c r="J20">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4322,31 +4322,31 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>-125.213948324483</v>
+        <v>-125.626782018272</v>
       </c>
       <c r="C21">
-        <v>15.8482809961348</v>
+        <v>15.8551007774469</v>
       </c>
       <c r="D21">
-        <v>-135.270392140977</v>
+        <v>-135.474865658216</v>
       </c>
       <c r="E21">
-        <v>54.646474251901</v>
+        <v>54.6609361875044</v>
       </c>
       <c r="F21">
-        <v>22.6078423978605</v>
+        <v>22.8404638625971</v>
       </c>
       <c r="G21">
-        <v>1.33714978617934</v>
+        <v>1.35432297042363</v>
       </c>
       <c r="H21">
-        <v>270.540784281954</v>
+        <v>270.949731316432</v>
       </c>
       <c r="I21">
-        <v>109.292948503802</v>
+        <v>109.321872375009</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4360,31 +4360,31 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>-137.747703557761</v>
+        <v>-138.029264917412</v>
       </c>
       <c r="C22">
-        <v>15.3445347645824</v>
+        <v>15.3588332993687</v>
       </c>
       <c r="D22">
-        <v>-147.804147374255</v>
+        <v>-147.877348557356</v>
       </c>
       <c r="E22">
-        <v>52.971445425053</v>
+        <v>52.9770767392347</v>
       </c>
       <c r="F22">
-        <v>21.6351000257716</v>
+        <v>21.4917834984963</v>
       </c>
       <c r="G22">
-        <v>1.24684350702806</v>
+        <v>1.23498574364523</v>
       </c>
       <c r="H22">
-        <v>295.60829474851</v>
+        <v>295.754697114712</v>
       </c>
       <c r="I22">
-        <v>105.942890850106</v>
+        <v>105.954153478469</v>
       </c>
       <c r="J22">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4392,31 +4392,31 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B23">
-        <v>-138.299349425054</v>
+        <v>-138.813638391932</v>
       </c>
       <c r="C23">
-        <v>15.3324668841266</v>
+        <v>15.3337814561168</v>
       </c>
       <c r="D23">
-        <v>-148.355793241548</v>
+        <v>-148.661722031876</v>
       </c>
       <c r="E23">
-        <v>52.978441595163</v>
+        <v>53.0595887269451</v>
       </c>
       <c r="F23">
-        <v>21.7635571548141</v>
+        <v>22.7580244901843</v>
       </c>
       <c r="G23">
-        <v>1.23235625928083</v>
+        <v>1.30618619586663</v>
       </c>
       <c r="H23">
-        <v>296.711586483095</v>
+        <v>297.323444063753</v>
       </c>
       <c r="I23">
-        <v>105.956883190326</v>
+        <v>106.11917745389</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4427,31 +4427,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>-138.391292360004</v>
+        <v>-138.987987630793</v>
       </c>
       <c r="C24">
-        <v>15.330922234336</v>
+        <v>15.3295574271587</v>
       </c>
       <c r="D24">
-        <v>-148.447736176498</v>
+        <v>-148.836071270737</v>
       </c>
       <c r="E24">
-        <v>53.040289091298</v>
+        <v>52.98321004537</v>
       </c>
       <c r="F24">
-        <v>22.5107059974158</v>
+        <v>22.3081126216202</v>
       </c>
       <c r="G24">
-        <v>1.30377642661683</v>
+        <v>1.2877089047591</v>
       </c>
       <c r="H24">
-        <v>296.895472352996</v>
+        <v>297.672142541474</v>
       </c>
       <c r="I24">
-        <v>106.080578182596</v>
+        <v>105.96642009074</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4462,31 +4462,31 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>-138.789670138661</v>
+        <v>-139.290478197351</v>
       </c>
       <c r="C25">
-        <v>15.33216488941</v>
+        <v>15.3068222130415</v>
       </c>
       <c r="D25">
-        <v>-148.846113955155</v>
+        <v>-149.138561837295</v>
       </c>
       <c r="E25">
-        <v>53.0479341926873</v>
+        <v>53.0732758344596</v>
       </c>
       <c r="F25">
-        <v>22.0491267348699</v>
+        <v>22.7771742119281</v>
       </c>
       <c r="G25">
-        <v>1.24295318151689</v>
+        <v>1.26699827546238</v>
       </c>
       <c r="H25">
-        <v>297.692227910311</v>
+        <v>298.27712367459</v>
       </c>
       <c r="I25">
-        <v>106.095868385375</v>
+        <v>106.146551668919</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4497,31 +4497,31 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26">
-        <v>-139.141281090723</v>
+        <v>-139.309968963802</v>
       </c>
       <c r="C26">
-        <v>15.2981967933758</v>
+        <v>15.3262536073108</v>
       </c>
       <c r="D26">
-        <v>-149.197724907217</v>
+        <v>-149.158052603746</v>
       </c>
       <c r="E26">
-        <v>53.032803021117</v>
+        <v>53.0226309822875</v>
       </c>
       <c r="F26">
-        <v>22.8763592253686</v>
+        <v>22.8548094317118</v>
       </c>
       <c r="G26">
-        <v>1.28943026785527</v>
+        <v>1.291403058002</v>
       </c>
       <c r="H26">
-        <v>298.395449814434</v>
+        <v>298.316105207492</v>
       </c>
       <c r="I26">
-        <v>106.065606042234</v>
+        <v>106.045261964575</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -4532,31 +4532,31 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B27">
-        <v>-139.384448882916</v>
+        <v>-139.389842973209</v>
       </c>
       <c r="C27">
-        <v>15.3133385662967</v>
+        <v>15.3462402129578</v>
       </c>
       <c r="D27">
-        <v>-149.44089269941</v>
+        <v>-149.237926613153</v>
       </c>
       <c r="E27">
-        <v>53.0917342557354</v>
+        <v>53.0334336249622</v>
       </c>
       <c r="F27">
-        <v>23.0598810153746</v>
+        <v>22.6175724238206</v>
       </c>
       <c r="G27">
-        <v>1.30525604347724</v>
+        <v>1.28193614920686</v>
       </c>
       <c r="H27">
-        <v>298.88178539882</v>
+        <v>298.475853226306</v>
       </c>
       <c r="I27">
-        <v>106.183468511471</v>
+        <v>106.066867249924</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4570,28 +4570,28 @@
         <v>39</v>
       </c>
       <c r="B28">
-        <v>-173.638682722566</v>
+        <v>-173.896987737813</v>
       </c>
       <c r="C28">
-        <v>17.4433993034661</v>
+        <v>17.4597734251199</v>
       </c>
       <c r="D28">
-        <v>-183.69512653906</v>
+        <v>-183.745071377757</v>
       </c>
       <c r="E28">
-        <v>54.2302156297088</v>
+        <v>54.2204025914783</v>
       </c>
       <c r="F28">
-        <v>20.6014176366991</v>
+        <v>20.7464783890015</v>
       </c>
       <c r="G28">
-        <v>1.24107465297574</v>
+        <v>1.24825700661912</v>
       </c>
       <c r="H28">
-        <v>367.390253078119</v>
+        <v>367.490142755514</v>
       </c>
       <c r="I28">
-        <v>108.460431259418</v>
+        <v>108.440805182957</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -4605,28 +4605,28 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>-174.441682389296</v>
+        <v>-174.793839526092</v>
       </c>
       <c r="C29">
-        <v>17.4628889735948</v>
+        <v>17.4630618101435</v>
       </c>
       <c r="D29">
-        <v>-184.49812620579</v>
+        <v>-184.641923166036</v>
       </c>
       <c r="E29">
-        <v>54.2739545583056</v>
+        <v>54.2483516264755</v>
       </c>
       <c r="F29">
-        <v>21.3927057403587</v>
+        <v>21.5613038872859</v>
       </c>
       <c r="G29">
-        <v>1.27329783218469</v>
+        <v>1.26914863730287</v>
       </c>
       <c r="H29">
-        <v>368.996252411581</v>
+        <v>369.283846332072</v>
       </c>
       <c r="I29">
-        <v>108.547909116611</v>
+        <v>108.496703252951</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4637,31 +4637,31 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>-174.91244024493</v>
+        <v>-174.814317665894</v>
       </c>
       <c r="C30">
-        <v>17.4270113274193</v>
+        <v>17.4467742052101</v>
       </c>
       <c r="D30">
-        <v>-184.968884061424</v>
+        <v>-184.662401305838</v>
       </c>
       <c r="E30">
-        <v>54.1710014263111</v>
+        <v>54.258523172458</v>
       </c>
       <c r="F30">
-        <v>21.6293677767949</v>
+        <v>21.1320723814768</v>
       </c>
       <c r="G30">
-        <v>1.27735154849354</v>
+        <v>1.25053232746049</v>
       </c>
       <c r="H30">
-        <v>369.937768122848</v>
+        <v>369.324802611676</v>
       </c>
       <c r="I30">
-        <v>108.342002852622</v>
+        <v>108.517046344916</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -4672,31 +4672,31 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-175.018645899296</v>
+        <v>-174.860157235791</v>
       </c>
       <c r="C31">
-        <v>17.4226690990578</v>
+        <v>17.4502170292833</v>
       </c>
       <c r="D31">
-        <v>-185.07508971579</v>
+        <v>-184.708240875735</v>
       </c>
       <c r="E31">
-        <v>54.2496846612218</v>
+        <v>54.1615533196154</v>
       </c>
       <c r="F31">
-        <v>21.7567990790086</v>
+        <v>21.3726436255465</v>
       </c>
       <c r="G31">
-        <v>1.30908087182203</v>
+        <v>1.26054382021776</v>
       </c>
       <c r="H31">
-        <v>370.150179431579</v>
+        <v>369.416481751471</v>
       </c>
       <c r="I31">
-        <v>108.499369322444</v>
+        <v>108.323106639231</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4710,28 +4710,28 @@
         <v>56</v>
       </c>
       <c r="B32">
-        <v>-175.375725741415</v>
+        <v>-175.316918286533</v>
       </c>
       <c r="C32">
-        <v>17.4297464916053</v>
+        <v>17.4420402890101</v>
       </c>
       <c r="D32">
-        <v>-185.432169557909</v>
+        <v>-185.165001926477</v>
       </c>
       <c r="E32">
-        <v>54.2519213951642</v>
+        <v>54.2015303147046</v>
       </c>
       <c r="F32">
-        <v>22.0467230346675</v>
+        <v>21.7512514596406</v>
       </c>
       <c r="G32">
-        <v>1.2854623453759</v>
+        <v>1.25633590946519</v>
       </c>
       <c r="H32">
-        <v>370.864339115818</v>
+        <v>370.330003852954</v>
       </c>
       <c r="I32">
-        <v>108.503842790328</v>
+        <v>108.403060629409</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4745,28 +4745,28 @@
         <v>57</v>
       </c>
       <c r="B33">
-        <v>-175.499895338911</v>
+        <v>-175.510310407286</v>
       </c>
       <c r="C33">
-        <v>17.43608027303</v>
+        <v>17.4636009694139</v>
       </c>
       <c r="D33">
-        <v>-185.556339155406</v>
+        <v>-185.35839404723</v>
       </c>
       <c r="E33">
-        <v>54.2755990504511</v>
+        <v>54.3231662366781</v>
       </c>
       <c r="F33">
-        <v>21.99260266273</v>
+        <v>21.8919173613297</v>
       </c>
       <c r="G33">
-        <v>1.27173169173816</v>
+        <v>1.26516311044341</v>
       </c>
       <c r="H33">
-        <v>371.112678310811</v>
+        <v>370.716788094459</v>
       </c>
       <c r="I33">
-        <v>108.551198100902</v>
+        <v>108.646332473356</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4831,28 +4831,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-469.052496858748</v>
+        <v>-469.532110711508</v>
       </c>
       <c r="E2">
-        <v>41.7941214660384</v>
+        <v>41.8217477643858</v>
       </c>
       <c r="F2">
-        <v>28.3559185591143</v>
+        <v>28.77309014538</v>
       </c>
       <c r="G2">
-        <v>1.41941778600881</v>
+        <v>1.4352472804969</v>
       </c>
       <c r="H2">
-        <v>938.104993717496</v>
+        <v>939.064221423016</v>
       </c>
       <c r="I2">
-        <v>83.5882429320769</v>
+        <v>83.6434955287716</v>
       </c>
       <c r="J2">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="K2">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4860,136 +4860,136 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.766840796776293</v>
+        <v>-0.467357273087623</v>
       </c>
       <c r="C3">
-        <v>0.540461024976964</v>
+        <v>0.540953159719671</v>
       </c>
       <c r="D3">
-        <v>-469.819337655524</v>
+        <v>-469.999467984595</v>
       </c>
       <c r="E3">
-        <v>41.8129665604327</v>
+        <v>41.7936480309523</v>
       </c>
       <c r="F3">
-        <v>29.4091590235128</v>
+        <v>29.4771326976126</v>
       </c>
       <c r="G3">
-        <v>1.46153783825218</v>
+        <v>1.45122622001342</v>
       </c>
       <c r="H3">
-        <v>939.638675311048</v>
+        <v>939.99893596919</v>
       </c>
       <c r="I3">
-        <v>83.6259331208653</v>
+        <v>83.5872960619046</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-1.19632358542666</v>
+        <v>-0.510694489282657</v>
       </c>
       <c r="C4">
-        <v>0.443426650756339</v>
+        <v>0.438257209624341</v>
       </c>
       <c r="D4">
-        <v>-470.248820444175</v>
+        <v>-470.04280520079</v>
       </c>
       <c r="E4">
-        <v>41.7770750513737</v>
+        <v>41.7869522592876</v>
       </c>
       <c r="F4">
-        <v>29.5096519254791</v>
+        <v>29.4502707161447</v>
       </c>
       <c r="G4">
-        <v>1.4160882585367</v>
+        <v>1.46913871229294</v>
       </c>
       <c r="H4">
-        <v>940.497640888349</v>
+        <v>940.08561040158</v>
       </c>
       <c r="I4">
-        <v>83.5541501027474</v>
+        <v>83.5739045185752</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>-1.75413664736644</v>
+        <v>-1.37713371616877</v>
       </c>
       <c r="C5">
-        <v>0.721154058354007</v>
+        <v>0.731271726253538</v>
       </c>
       <c r="D5">
-        <v>-470.806633506115</v>
+        <v>-470.909244427676</v>
       </c>
       <c r="E5">
-        <v>41.7925624245038</v>
+        <v>41.8149665356332</v>
       </c>
       <c r="F5">
-        <v>30.4742243095784</v>
+        <v>30.4962646485706</v>
       </c>
       <c r="G5">
-        <v>1.49262302195449</v>
+        <v>1.49105767255253</v>
       </c>
       <c r="H5">
-        <v>941.61326701223</v>
+        <v>941.818488855351</v>
       </c>
       <c r="I5">
-        <v>83.5851248490076</v>
+        <v>83.6299330712664</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>-9.99137419251655</v>
+        <v>-9.65669862128342</v>
       </c>
       <c r="C6">
-        <v>4.31987207367761</v>
+        <v>4.33243874638137</v>
       </c>
       <c r="D6">
-        <v>-479.043871051265</v>
+        <v>-479.18880933279</v>
       </c>
       <c r="E6">
-        <v>41.1790198050337</v>
+        <v>41.2124555755289</v>
       </c>
       <c r="F6">
-        <v>27.4733529703848</v>
+        <v>27.6263178020012</v>
       </c>
       <c r="G6">
-        <v>1.35235741185831</v>
+        <v>1.35236281497802</v>
       </c>
       <c r="H6">
-        <v>958.087742102531</v>
+        <v>958.37761866558</v>
       </c>
       <c r="I6">
-        <v>82.3580396100674</v>
+        <v>82.4249111510577</v>
       </c>
       <c r="J6">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="K6">
         <v>0.01</v>
@@ -4997,66 +4997,66 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>-10.3423689957446</v>
+        <v>-10.0645046730661</v>
       </c>
       <c r="C7">
-        <v>4.33386514844643</v>
+        <v>4.40216696692506</v>
       </c>
       <c r="D7">
-        <v>-479.394865854493</v>
+        <v>-479.596615384572</v>
       </c>
       <c r="E7">
-        <v>41.1866606270959</v>
+        <v>41.1579381695566</v>
       </c>
       <c r="F7">
-        <v>28.0866980232388</v>
+        <v>28.0997090624782</v>
       </c>
       <c r="G7">
-        <v>1.35418417320029</v>
+        <v>1.36572564529566</v>
       </c>
       <c r="H7">
-        <v>958.789731708986</v>
+        <v>959.193230769144</v>
       </c>
       <c r="I7">
-        <v>82.3733212541917</v>
+        <v>82.3158763391132</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-11.1529230860984</v>
+        <v>-10.5162463353783</v>
       </c>
       <c r="C8">
-        <v>4.37630799794268</v>
+        <v>4.35064311762734</v>
       </c>
       <c r="D8">
-        <v>-480.205419944847</v>
+        <v>-480.048357046886</v>
       </c>
       <c r="E8">
-        <v>41.1911652660197</v>
+        <v>41.1984076135199</v>
       </c>
       <c r="F8">
-        <v>28.7268604080056</v>
+        <v>28.7431089348765</v>
       </c>
       <c r="G8">
-        <v>1.39326163526943</v>
+        <v>1.38336066882366</v>
       </c>
       <c r="H8">
-        <v>960.410839889695</v>
+        <v>960.096714093772</v>
       </c>
       <c r="I8">
-        <v>82.3823305320394</v>
+        <v>82.3968152270398</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5067,31 +5067,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-11.6926921724347</v>
+        <v>-10.9111519692791</v>
       </c>
       <c r="C9">
-        <v>4.39691575144196</v>
+        <v>4.42228016545755</v>
       </c>
       <c r="D9">
-        <v>-480.745189031183</v>
+        <v>-480.443262680786</v>
       </c>
       <c r="E9">
-        <v>41.1804487112205</v>
+        <v>41.1946192763904</v>
       </c>
       <c r="F9">
-        <v>29.5121099949399</v>
+        <v>29.1403183124872</v>
       </c>
       <c r="G9">
-        <v>1.41235027040611</v>
+        <v>1.39372396026733</v>
       </c>
       <c r="H9">
-        <v>961.490378062366</v>
+        <v>960.886525361572</v>
       </c>
       <c r="I9">
-        <v>82.360897422441</v>
+        <v>82.3892385527808</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5156,133 +5156,133 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>408.519051479595</v>
+        <v>408.699952468733</v>
       </c>
       <c r="E2">
-        <v>61.7611280816013</v>
+        <v>61.7324435135073</v>
       </c>
       <c r="F2">
-        <v>35.0562299111487</v>
+        <v>34.6571633759556</v>
       </c>
       <c r="G2">
-        <v>2.6948838600271</v>
+        <v>2.6514318810911</v>
       </c>
       <c r="H2">
-        <v>-817.038102959189</v>
+        <v>-817.399904937467</v>
       </c>
       <c r="I2">
-        <v>123.522256163203</v>
+        <v>123.464887027015</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="K2">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>-1.07828954037788</v>
+        <v>-0.695645718799768</v>
       </c>
       <c r="C3">
-        <v>1.0622975487381</v>
+        <v>1.10504313706631</v>
       </c>
       <c r="D3">
-        <v>407.440761939218</v>
+        <v>408.004306749933</v>
       </c>
       <c r="E3">
-        <v>61.4642357800324</v>
+        <v>61.4497112520103</v>
       </c>
       <c r="F3">
-        <v>36.6049077010523</v>
+        <v>35.9634873935098</v>
       </c>
       <c r="G3">
-        <v>2.77283098832757</v>
+        <v>2.72958829205018</v>
       </c>
       <c r="H3">
-        <v>-814.881523878435</v>
+        <v>-816.008613499867</v>
       </c>
       <c r="I3">
-        <v>122.928471560065</v>
+        <v>122.899422504021</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K3">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>-1.12689240504468</v>
+        <v>-1.10426134525873</v>
       </c>
       <c r="C4">
-        <v>0.133539923344558</v>
+        <v>0.169748808721244</v>
       </c>
       <c r="D4">
-        <v>407.392159074551</v>
+        <v>407.595691123474</v>
       </c>
       <c r="E4">
-        <v>61.8032556594344</v>
+        <v>61.785970644704</v>
       </c>
       <c r="F4">
-        <v>36.2127072207749</v>
+        <v>35.9518932246795</v>
       </c>
       <c r="G4">
-        <v>2.74698510342055</v>
+        <v>2.72380825266833</v>
       </c>
       <c r="H4">
-        <v>-814.784318149101</v>
+        <v>-815.191382246949</v>
       </c>
       <c r="I4">
-        <v>123.606511318869</v>
+        <v>123.571941289408</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>-1.60275720003398</v>
+        <v>-1.79330353676861</v>
       </c>
       <c r="C5">
-        <v>1.08031072149556</v>
+        <v>1.11143692824101</v>
       </c>
       <c r="D5">
-        <v>406.916294279561</v>
+        <v>406.906648931966</v>
       </c>
       <c r="E5">
-        <v>61.4533180495899</v>
+        <v>61.4032584388815</v>
       </c>
       <c r="F5">
-        <v>37.0491870114419</v>
+        <v>37.0194051090651</v>
       </c>
       <c r="G5">
-        <v>2.77820770684615</v>
+        <v>2.75594370466787</v>
       </c>
       <c r="H5">
-        <v>-813.832588559123</v>
+        <v>-813.813297863932</v>
       </c>
       <c r="I5">
-        <v>122.90663609918</v>
+        <v>122.806516877763</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -5341,28 +5341,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-191.737355638226</v>
+        <v>-191.71814767549</v>
       </c>
       <c r="E2">
-        <v>35.4302279473903</v>
+        <v>35.4098280311518</v>
       </c>
       <c r="F2">
-        <v>25.9411883761333</v>
+        <v>25.9869104108458</v>
       </c>
       <c r="G2">
-        <v>1.02052097293002</v>
+        <v>1.03109314004438</v>
       </c>
       <c r="H2">
-        <v>383.474711276452</v>
+        <v>383.43629535098</v>
       </c>
       <c r="I2">
-        <v>70.8604558947806</v>
+        <v>70.8196560623036</v>
       </c>
       <c r="J2">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K2">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5370,34 +5370,34 @@
         <v>59</v>
       </c>
       <c r="B3">
-        <v>-1.50742527963527</v>
+        <v>-1.15381832363024</v>
       </c>
       <c r="C3">
-        <v>1.02928251014447</v>
+        <v>1.02281145343162</v>
       </c>
       <c r="D3">
-        <v>-193.244780917862</v>
+        <v>-192.871965999121</v>
       </c>
       <c r="E3">
-        <v>35.3360093265087</v>
+        <v>35.3576011171989</v>
       </c>
       <c r="F3">
-        <v>24.773539920329</v>
+        <v>24.4902025299982</v>
       </c>
       <c r="G3">
-        <v>0.974439301671879</v>
+        <v>0.959384380769302</v>
       </c>
       <c r="H3">
-        <v>386.489561835723</v>
+        <v>385.743931998242</v>
       </c>
       <c r="I3">
-        <v>70.6720186530174</v>
+        <v>70.7152022343978</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5405,28 +5405,28 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>-8.22684749004729</v>
+        <v>-7.87527233854241</v>
       </c>
       <c r="C4">
-        <v>4.40555150486038</v>
+        <v>4.41881658752279</v>
       </c>
       <c r="D4">
-        <v>-199.964203128273</v>
+        <v>-199.593420014033</v>
       </c>
       <c r="E4">
-        <v>35.3649658184618</v>
+        <v>35.3918225898941</v>
       </c>
       <c r="F4">
-        <v>23.8246259400876</v>
+        <v>23.6996794217122</v>
       </c>
       <c r="G4">
-        <v>0.912578046554281</v>
+        <v>0.905093618289699</v>
       </c>
       <c r="H4">
-        <v>399.928406256547</v>
+        <v>399.186840028066</v>
       </c>
       <c r="I4">
-        <v>70.7299316369236</v>
+        <v>70.7836451797883</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -5440,28 +5440,28 @@
         <v>61</v>
       </c>
       <c r="B5">
-        <v>-9.48510930370674</v>
+        <v>-9.39885254384255</v>
       </c>
       <c r="C5">
-        <v>4.52799604800514</v>
+        <v>4.5328392972936</v>
       </c>
       <c r="D5">
-        <v>-201.222464941933</v>
+        <v>-201.117000219333</v>
       </c>
       <c r="E5">
-        <v>35.3396680915796</v>
+        <v>35.3469013888421</v>
       </c>
       <c r="F5">
-        <v>22.4325502167741</v>
+        <v>22.5352930098894</v>
       </c>
       <c r="G5">
-        <v>0.857643206162961</v>
+        <v>0.864380815340728</v>
       </c>
       <c r="H5">
-        <v>402.444929883866</v>
+        <v>402.234000438666</v>
       </c>
       <c r="I5">
-        <v>70.6793361831593</v>
+        <v>70.6938027776842</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5475,34 +5475,34 @@
         <v>62</v>
       </c>
       <c r="B6">
-        <v>-12.1053070841856</v>
+        <v>-11.7937586016472</v>
       </c>
       <c r="C6">
-        <v>5.76489461328633</v>
+        <v>5.76693627304563</v>
       </c>
       <c r="D6">
-        <v>-203.842662722412</v>
+        <v>-203.511906277137</v>
       </c>
       <c r="E6">
-        <v>35.439275083678</v>
+        <v>35.4343608696674</v>
       </c>
       <c r="F6">
-        <v>21.7142260422762</v>
+        <v>21.4336854815334</v>
       </c>
       <c r="G6">
-        <v>0.811009108648022</v>
+        <v>0.804169470366224</v>
       </c>
       <c r="H6">
-        <v>407.685325444823</v>
+        <v>407.023812554275</v>
       </c>
       <c r="I6">
-        <v>70.878550167356</v>
+        <v>70.8687217393347</v>
       </c>
       <c r="J6">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="K6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5510,28 +5510,28 @@
         <v>63</v>
       </c>
       <c r="B7">
-        <v>-13.7730279941839</v>
+        <v>-13.7631313841162</v>
       </c>
       <c r="C7">
-        <v>5.87238772148247</v>
+        <v>5.85885125749503</v>
       </c>
       <c r="D7">
-        <v>-205.51038363241</v>
+        <v>-205.481279059606</v>
       </c>
       <c r="E7">
-        <v>35.4272147105959</v>
+        <v>35.3953556841765</v>
       </c>
       <c r="F7">
-        <v>20.5163143106474</v>
+        <v>20.607093440705</v>
       </c>
       <c r="G7">
-        <v>0.770404156300223</v>
+        <v>0.771580152517584</v>
       </c>
       <c r="H7">
-        <v>411.02076726482</v>
+        <v>410.962558119213</v>
       </c>
       <c r="I7">
-        <v>70.8544294211919</v>
+        <v>70.7907113683529</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -5596,60 +5596,60 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>361.548201964518</v>
+        <v>361.823071179111</v>
       </c>
       <c r="E2">
-        <v>67.2242394324232</v>
+        <v>67.2423668336044</v>
       </c>
       <c r="F2">
-        <v>34.771585080547</v>
+        <v>34.7584327282136</v>
       </c>
       <c r="G2">
-        <v>3.41078451474812</v>
+        <v>3.42953319493121</v>
       </c>
       <c r="H2">
-        <v>-723.096403929035</v>
+        <v>-723.646142358223</v>
       </c>
       <c r="I2">
-        <v>134.448478864846</v>
+        <v>134.484733667209</v>
       </c>
       <c r="J2">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="K2">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.4248548502992</v>
+        <v>-0.343599010602577</v>
       </c>
       <c r="C3">
-        <v>1.56517426661945</v>
+        <v>1.51893549208178</v>
       </c>
       <c r="D3">
-        <v>361.123347114219</v>
+        <v>361.479472168509</v>
       </c>
       <c r="E3">
-        <v>67.148463619578</v>
+        <v>67.2296973893866</v>
       </c>
       <c r="F3">
-        <v>35.0475803114036</v>
+        <v>34.5266772778027</v>
       </c>
       <c r="G3">
-        <v>3.43443880966882</v>
+        <v>3.56396431109914</v>
       </c>
       <c r="H3">
-        <v>-722.246694228437</v>
+        <v>-722.958944337018</v>
       </c>
       <c r="I3">
-        <v>134.296927239156</v>
+        <v>134.459394778773</v>
       </c>
       <c r="J3">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="K3">
         <v>0.24</v>
@@ -5657,66 +5657,66 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.529096835597989</v>
+        <v>-0.39313924813176</v>
       </c>
       <c r="C4">
-        <v>1.54138608856306</v>
+        <v>0.426829558975291</v>
       </c>
       <c r="D4">
-        <v>361.01910512892</v>
+        <v>361.429931930979</v>
       </c>
       <c r="E4">
-        <v>67.1286825466866</v>
+        <v>67.3040413461749</v>
       </c>
       <c r="F4">
-        <v>34.8872585301146</v>
+        <v>35.5372306130595</v>
       </c>
       <c r="G4">
-        <v>3.48101335472106</v>
+        <v>3.43465824972294</v>
       </c>
       <c r="H4">
-        <v>-722.038210257841</v>
+        <v>-722.859863861959</v>
       </c>
       <c r="I4">
-        <v>134.257365093373</v>
+        <v>134.60808269235</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.576330661945121</v>
+        <v>-0.558206262987755</v>
       </c>
       <c r="C5">
-        <v>0.454863833884211</v>
+        <v>1.5747018340585</v>
       </c>
       <c r="D5">
-        <v>360.971871302573</v>
+        <v>361.264864916124</v>
       </c>
       <c r="E5">
-        <v>67.3469344742708</v>
+        <v>67.2113746719236</v>
       </c>
       <c r="F5">
-        <v>36.0810591391511</v>
+        <v>34.744254794464</v>
       </c>
       <c r="G5">
-        <v>3.51691032650011</v>
+        <v>3.36803636277328</v>
       </c>
       <c r="H5">
-        <v>-721.943742605146</v>
+        <v>-722.529729832247</v>
       </c>
       <c r="I5">
-        <v>134.693868948542</v>
+        <v>134.422749343847</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5730,31 +5730,31 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>-29.0517139618461</v>
+        <v>-29.6217556239953</v>
       </c>
       <c r="C6">
-        <v>7.67026650666333</v>
+        <v>7.55544940847109</v>
       </c>
       <c r="D6">
-        <v>332.496488002672</v>
+        <v>332.201315555116</v>
       </c>
       <c r="E6">
-        <v>65.7805928989227</v>
+        <v>65.7915687152394</v>
       </c>
       <c r="F6">
-        <v>32.7467963445524</v>
+        <v>33.8405260354104</v>
       </c>
       <c r="G6">
-        <v>3.17171069737705</v>
+        <v>3.34834183282508</v>
       </c>
       <c r="H6">
-        <v>-664.992976005343</v>
+        <v>-664.402631110231</v>
       </c>
       <c r="I6">
-        <v>131.561185797845</v>
+        <v>131.583137430479</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5765,31 +5765,31 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>-29.0990573682985</v>
+        <v>-29.6505425664462</v>
       </c>
       <c r="C7">
-        <v>7.62469733097759</v>
+        <v>7.5406452874412</v>
       </c>
       <c r="D7">
-        <v>332.449144596219</v>
+        <v>332.172528612665</v>
       </c>
       <c r="E7">
-        <v>65.7167797426129</v>
+        <v>65.771886750325</v>
       </c>
       <c r="F7">
-        <v>33.579481737316</v>
+        <v>34.3018405804507</v>
       </c>
       <c r="G7">
-        <v>3.21845887314885</v>
+        <v>3.18570896424961</v>
       </c>
       <c r="H7">
-        <v>-664.898289192438</v>
+        <v>-664.345057225329</v>
       </c>
       <c r="I7">
-        <v>131.433559485226</v>
+        <v>131.54377350065</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -5800,28 +5800,28 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>-29.6761577013758</v>
+        <v>-29.8971871717022</v>
       </c>
       <c r="C8">
-        <v>7.57989194848243</v>
+        <v>7.6481558950486</v>
       </c>
       <c r="D8">
-        <v>331.872044263143</v>
+        <v>331.92588400741</v>
       </c>
       <c r="E8">
-        <v>65.8341433562338</v>
+        <v>65.7656060561279</v>
       </c>
       <c r="F8">
-        <v>34.5564663750589</v>
+        <v>33.2795506373123</v>
       </c>
       <c r="G8">
-        <v>3.22350238188307</v>
+        <v>3.27909285457426</v>
       </c>
       <c r="H8">
-        <v>-663.744088526285</v>
+        <v>-663.85176801482</v>
       </c>
       <c r="I8">
-        <v>131.668286712468</v>
+        <v>131.531212112256</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5832,31 +5832,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>-30.0998432052357</v>
+        <v>-30.2357194025467</v>
       </c>
       <c r="C9">
-        <v>7.67086179684019</v>
+        <v>7.63214088357129</v>
       </c>
       <c r="D9">
-        <v>331.448358759283</v>
+        <v>331.587351776564</v>
       </c>
       <c r="E9">
-        <v>65.7544052761638</v>
+        <v>65.7620143740285</v>
       </c>
       <c r="F9">
-        <v>34.1389711270598</v>
+        <v>33.8667683567634</v>
       </c>
       <c r="G9">
-        <v>3.25923230836359</v>
+        <v>3.25364032002379</v>
       </c>
       <c r="H9">
-        <v>-662.896717518565</v>
+        <v>-663.174703553129</v>
       </c>
       <c r="I9">
-        <v>131.508810552328</v>
+        <v>131.524028748057</v>
       </c>
       <c r="J9">
         <v>0</v>
